--- a/punch04.xlsx
+++ b/punch04.xlsx
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,12 +78,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,7 +211,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -238,6 +249,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -249,6 +261,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -792,6 +805,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -803,6 +817,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1317,18 +1332,18 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19017365"/>
-        <c:axId val="98760224"/>
+        <c:axId val="91814098"/>
+        <c:axId val="66631438"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19017365"/>
+        <c:axId val="91814098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1351,12 +1366,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98760224"/>
+        <c:crossAx val="66631438"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98760224"/>
+        <c:axId val="66631438"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
@@ -1372,7 +1387,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1395,7 +1410,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19017365"/>
+        <c:crossAx val="91814098"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1455,9 +1470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>345960</xdr:colOff>
+      <xdr:colOff>345600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1465,8 +1480,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5059800" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5058360" y="36000"/>
+        <a:ext cx="5762160" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1487,14 +1502,14 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,19 +1870,19 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="2" t="n">
         <v>772</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <v>519.61538461538</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>772</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="2" t="n">
         <v>519.61538461538</v>
       </c>
     </row>

--- a/punch04.xlsx
+++ b/punch04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">流行時刻（日）</t>
   </si>
@@ -28,10 +28,16 @@
     <t xml:space="preserve">80%削減（局所座標）</t>
   </si>
   <si>
+    <t xml:space="preserve">80%削減（量子化）</t>
+  </si>
+  <si>
     <t xml:space="preserve">80%削減（感染者数）</t>
   </si>
   <si>
     <t xml:space="preserve">65%削減（局所座標）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65%削減（量子化）</t>
   </si>
   <si>
     <t xml:space="preserve">65%削減（感染者数）</t>
@@ -41,8 +47,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -78,12 +86,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFB3B3B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -126,7 +146,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,7 +155,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,7 +204,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -173,7 +213,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -186,7 +226,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -195,10 +235,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -211,7 +251,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -225,22 +265,22 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80%削減（感染者数）</c:v>
+                  <c:v>65%削減（感染者数）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="b2b2b2"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:srgbClr val="b2b2b2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -249,7 +289,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -261,7 +301,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -524,15 +563,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$82</c:f>
+              <c:f>Sheet1!$G$2:$G$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.6923076923077</c:v>
@@ -541,235 +580,235 @@
                   <c:v>2.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0384615384615</c:v>
+                  <c:v>4.03846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3846153846154</c:v>
+                  <c:v>5.38461538461539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7307692307692</c:v>
+                  <c:v>6.73076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4230769230769</c:v>
+                  <c:v>9.42307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.115384615385</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.884615384615</c:v>
+                  <c:v>22.8846153846154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.961538461538</c:v>
+                  <c:v>30.9615384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.076923076923</c:v>
+                  <c:v>43.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.230769230769</c:v>
+                  <c:v>59.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.423076923077</c:v>
+                  <c:v>79.4230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.03846153846</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.42307692308</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.26923076923</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278.65384615385</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.61538461538</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.61538461538</c:v>
+                  <c:v>519.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>467.11538461538</c:v>
+                  <c:v>506.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>421.34615384615</c:v>
+                  <c:v>492.699038461539</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>379.61538461538</c:v>
+                  <c:v>480.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>341.92307692308</c:v>
+                  <c:v>467.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>308.26923076923</c:v>
+                  <c:v>456.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>278.65384615385</c:v>
+                  <c:v>444.2375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>250.38461538462</c:v>
+                  <c:v>432.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>226.15384615385</c:v>
+                  <c:v>421.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>203.26923076923</c:v>
+                  <c:v>410.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>183.07692307692</c:v>
+                  <c:v>399.814423076923</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165.57692307692</c:v>
+                  <c:v>390.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>149.42307692308</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134.61538461538</c:v>
+                  <c:v>370.199038461538</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>121.15384615385</c:v>
+                  <c:v>360.775961538461</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>109.03846153846</c:v>
+                  <c:v>351.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>98.269230769231</c:v>
+                  <c:v>341.929807692308</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.846153846154</c:v>
+                  <c:v>333.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>79.423076923077</c:v>
+                  <c:v>324.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72.692307692308</c:v>
+                  <c:v>316.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.615384615385</c:v>
+                  <c:v>308.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.230769230769</c:v>
+                  <c:v>300.199038461538</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.5</c:v>
+                  <c:v>293.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47.115384615385</c:v>
+                  <c:v>285.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.076923076923</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>39.038461538462</c:v>
+                  <c:v>270.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35</c:v>
+                  <c:v>263.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.961538461538</c:v>
+                  <c:v>257.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.269230769231</c:v>
+                  <c:v>250.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.576923076923</c:v>
+                  <c:v>243.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22.884615384615</c:v>
+                  <c:v>238.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21.538461538462</c:v>
+                  <c:v>231.545192307692</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.846153846154</c:v>
+                  <c:v>226.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.5</c:v>
+                  <c:v>219.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.153846153846</c:v>
+                  <c:v>214.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13.461538461538</c:v>
+                  <c:v>208.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.115384615385</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.115384615385</c:v>
+                  <c:v>197.891346153846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.769230769231</c:v>
+                  <c:v>193.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.4230769230769</c:v>
+                  <c:v>188.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.0769230769231</c:v>
+                  <c:v>183.083653846154</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.0769230769231</c:v>
+                  <c:v>179.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.7307692307692</c:v>
+                  <c:v>173.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7307692307692</c:v>
+                  <c:v>169.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.3846153846154</c:v>
+                  <c:v>165.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.3846153846154</c:v>
+                  <c:v>161.545192307692</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.3846153846154</c:v>
+                  <c:v>157.506730769231</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.0384615384615</c:v>
+                  <c:v>153.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.0384615384615</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.0384615384615</c:v>
+                  <c:v>145.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>141.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>137.314423076923</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>134.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>130.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>127.891346153846</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>123.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>121.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>118.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>114.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>111.7375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,22 +820,22 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65%削減（感染者数）</c:v>
+                  <c:v>80%削減（感染者数）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="0000ff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="0000ff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -805,7 +844,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -817,7 +856,6 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1080,15 +1118,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$82</c:f>
+              <c:f>Sheet1!$D$2:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3461538461538</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.6923076923077</c:v>
@@ -1097,253 +1135,253 @@
                   <c:v>2.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0384615384615</c:v>
+                  <c:v>4.03846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3846153846154</c:v>
+                  <c:v>5.38461538461539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7307692307692</c:v>
+                  <c:v>6.73076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4230769230769</c:v>
+                  <c:v>9.42307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.115384615385</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.884615384615</c:v>
+                  <c:v>22.8846153846154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.961538461538</c:v>
+                  <c:v>30.9615384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.076923076923</c:v>
+                  <c:v>43.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.230769230769</c:v>
+                  <c:v>59.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.423076923077</c:v>
+                  <c:v>79.4230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.03846153846</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.42307692308</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.26923076923</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278.65384615385</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.61538461538</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.61538461538</c:v>
+                  <c:v>519.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>506.15384615385</c:v>
+                  <c:v>467.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>492.69230769231</c:v>
+                  <c:v>421.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>480.57692307692</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>467.11538461538</c:v>
+                  <c:v>341.929807692308</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>456.34615384615</c:v>
+                  <c:v>308.275961538461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>444.23076923077</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>432.11538461538</c:v>
+                  <c:v>250.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>421.34615384615</c:v>
+                  <c:v>226.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>410.57692307692</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>399.80769230769</c:v>
+                  <c:v>183.083653846154</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>390.38461538462</c:v>
+                  <c:v>165.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>379.61538461538</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>370.19230769231</c:v>
+                  <c:v>134.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>360.76923076923</c:v>
+                  <c:v>121.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>351.34615384615</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>341.92307692308</c:v>
+                  <c:v>98.2692307692308</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>333.84615384615</c:v>
+                  <c:v>88.8461538461538</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>324.42307692308</c:v>
+                  <c:v>79.4230769230769</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>316.34615384615</c:v>
+                  <c:v>72.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>308.26923076923</c:v>
+                  <c:v>64.6153846153846</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>300.19230769231</c:v>
+                  <c:v>59.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>293.46153846154</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>285.38461538462</c:v>
+                  <c:v>47.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>278.65384615385</c:v>
+                  <c:v>43.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>270.57692307692</c:v>
+                  <c:v>39.0384615384615</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263.84615384615</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>257.11538461538</c:v>
+                  <c:v>30.9615384615384</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>250.38461538462</c:v>
+                  <c:v>28.2692307692307</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>243.65384615385</c:v>
+                  <c:v>25.5769230769231</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>238.26923076923</c:v>
+                  <c:v>22.8846153846154</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>231.53846153846</c:v>
+                  <c:v>21.5384615384615</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>226.15384615385</c:v>
+                  <c:v>18.8461538461538</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>219.42307692308</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>214.03846153846</c:v>
+                  <c:v>16.1538461538461</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>208.65384615385</c:v>
+                  <c:v>13.4615384615384</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>203.26923076923</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>197.88461538462</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>193.84615384615</c:v>
+                  <c:v>10.7692307692308</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>188.46153846154</c:v>
+                  <c:v>9.42307692307691</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>183.07692307692</c:v>
+                  <c:v>8.07692307692307</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>179.03846153846</c:v>
+                  <c:v>8.07692307692307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>173.65384615385</c:v>
+                  <c:v>6.73076923076922</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>169.61538461538</c:v>
+                  <c:v>6.73076923076922</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>165.57692307692</c:v>
+                  <c:v>5.38461538461537</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>161.53846153846</c:v>
+                  <c:v>5.38461538461537</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>157.5</c:v>
+                  <c:v>5.38461538461537</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>153.46153846154</c:v>
+                  <c:v>4.03846153846153</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>149.42307692308</c:v>
+                  <c:v>4.03846153846153</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>145.38461538462</c:v>
+                  <c:v>4.03846153846153</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>141.34615384615</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>137.30769230769</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>134.61538461538</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>130.57692307692</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>127.88461538462</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>123.84615384615</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>121.15384615385</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>118.46153846154</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>114.42307692308</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.73076923077</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>109.03846153846</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91814098"/>
-        <c:axId val="66631438"/>
+        <c:axId val="30641113"/>
+        <c:axId val="37305470"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91814098"/>
+        <c:axId val="30641113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1366,15 +1404,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66631438"/>
+        <c:crossAx val="37305470"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66631438"/>
+        <c:axId val="37305470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="700"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1387,7 +1424,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1410,7 +1447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91814098"/>
+        <c:crossAx val="30641113"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1463,16 +1500,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9720</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>345600</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1480,8 +1517,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5058360" y="36000"/>
-        <a:ext cx="5762160" cy="3239280"/>
+        <a:off x="9014760" y="117360"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1499,84 +1536,114 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:AMJ82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
+      <c r="B2" s="2" t="n">
+        <v>0.600000000000002</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1.3461538461538</v>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1.34615384615385</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.600000000000002</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.34615384615385</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
+      <c r="B3" s="2" t="n">
+        <v>0.600000000000002</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1.3461538461538</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1.34615384615385</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.600000000000002</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.34615384615385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>4</v>
+      <c r="B4" s="2" t="n">
+        <v>1.2</v>
       </c>
       <c r="C4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>2.6923076923077</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="n">
         <v>2.6923076923077</v>
       </c>
     </row>
@@ -1584,16 +1651,22 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>4</v>
+      <c r="B5" s="2" t="n">
+        <v>1.2</v>
       </c>
       <c r="C5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>2.6923076923077</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>2.6923076923077</v>
       </c>
     </row>
@@ -1601,101 +1674,137 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>6</v>
+      <c r="B6" s="2" t="n">
+        <v>1.8</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>4.0384615384615</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>4.0384615384615</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>4.03846153846154</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.03846153846154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>8</v>
+      <c r="B7" s="2" t="n">
+        <v>2.4</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>5.3846153846154</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>5.3846153846154</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>5.38461538461539</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>5.38461538461539</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>6.7307692307692</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>6.7307692307692</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>6.73076923076923</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>6.73076923076923</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>14</v>
+      <c r="B9" s="2" t="n">
+        <v>4.2</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>9.4230769230769</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>9.4230769230769</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>9.42307692307693</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>9.42307692307693</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>18</v>
+      <c r="B10" s="2" t="n">
+        <v>5.4</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>12.115384615385</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>12.115384615385</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>12.1153846153846</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>12.1153846153846</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>26</v>
+      <c r="B11" s="2" t="n">
+        <v>7.8</v>
       </c>
       <c r="C11" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="n">
         <v>17.5</v>
       </c>
     </row>
@@ -1703,1207 +1812,1634 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>34</v>
+      <c r="B12" s="2" t="n">
+        <v>10.2</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>22.884615384615</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>22.884615384615</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>22.8846153846154</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>22.8846153846154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>46</v>
+      <c r="B13" s="2" t="n">
+        <v>13.8</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>30.961538461538</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>30.961538461538</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>30.9615384615385</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>30.9615384615385</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>64</v>
+      <c r="B14" s="2" t="n">
+        <v>19.2</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43.076923076923</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>43.076923076923</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>43.0769230769231</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>43.0769230769231</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>88</v>
+      <c r="B15" s="2" t="n">
+        <v>26.4</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>59.230769230769</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>59.230769230769</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>59.2307692307692</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>59.2307692307692</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>118</v>
+      <c r="B16" s="2" t="n">
+        <v>35.4</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>79.423076923077</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>79.423076923077</v>
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>79.4230769230769</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>79.4230769230769</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>162</v>
+      <c r="B17" s="2" t="n">
+        <v>48.603</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>109.03846153846</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>109.03846153846</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>109.045192307692</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>48.603</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>109.045192307692</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>222</v>
+      <c r="B18" s="2" t="n">
+        <v>66.603</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>149.42307692308</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>149.42307692308</v>
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>149.429807692308</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>66.603</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>149.429807692308</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>302</v>
+      <c r="B19" s="2" t="n">
+        <v>90.603</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>203.26923076923</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>203.26923076923</v>
+        <v>151</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>203.275961538462</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>90.603</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>203.275961538462</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>414</v>
+      <c r="B20" s="2" t="n">
+        <v>124.203</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>278.65384615385</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>278.65384615385</v>
+        <v>207</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>278.660576923077</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>124.203</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>278.660576923077</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>564</v>
+      <c r="B21" s="2" t="n">
+        <v>169.203</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>379.61538461538</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>379.61538461538</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+        <v>282</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>379.622115384615</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>169.203</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>379.622115384615</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>772</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>519.61538461538</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>772</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>519.61538461538</v>
-      </c>
+      <c r="B22" s="6" t="n">
+        <v>231.603</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>386</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>519.622115384615</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>231.603</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>386</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>519.622115384615</v>
+      </c>
+      <c r="AMJ22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>694</v>
+      <c r="B23" s="2" t="n">
+        <v>208.203</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>467.11538461538</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>506.15384615385</v>
+        <v>347</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>467.122115384615</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>225.603</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>506.160576923077</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>626</v>
+      <c r="B24" s="2" t="n">
+        <v>187.803</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>421.34615384615</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>492.69230769231</v>
+        <v>313</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>421.352884615385</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>219.603</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>492.699038461539</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>564</v>
+      <c r="B25" s="2" t="n">
+        <v>169.203</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>379.61538461538</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>480.57692307692</v>
+        <v>282</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>379.622115384615</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>214.203</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>480.583653846154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>508</v>
+      <c r="B26" s="2" t="n">
+        <v>152.403</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>341.92307692308</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>467.11538461538</v>
+        <v>254</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>341.929807692308</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>208.203</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="G26" s="4" t="n">
+        <v>467.122115384615</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>458</v>
+      <c r="B27" s="2" t="n">
+        <v>137.403</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>308.26923076923</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>456.34615384615</v>
+        <v>229</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>308.275961538461</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>203.403</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>456.352884615385</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>414</v>
+      <c r="B28" s="2" t="n">
+        <v>124.203</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>278.65384615385</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>444.23076923077</v>
+        <v>207</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>278.660576923077</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>198.003</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>444.2375</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>372</v>
+      <c r="B29" s="2" t="n">
+        <v>111.603</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>250.38461538462</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>432.11538461538</v>
+        <v>186</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>250.391346153846</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>192.603</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>432.122115384615</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>336</v>
+      <c r="B30" s="2" t="n">
+        <v>100.803</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>226.15384615385</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>421.34615384615</v>
+        <v>168</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>226.160576923077</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>187.803</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>421.352884615385</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>302</v>
+      <c r="B31" s="2" t="n">
+        <v>90.603</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>203.26923076923</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>410.57692307692</v>
+        <v>151</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>203.275961538462</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>183.003</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>410.583653846154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>272</v>
+      <c r="B32" s="2" t="n">
+        <v>81.603</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>183.07692307692</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>399.80769230769</v>
+        <v>136</v>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>183.083653846154</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>178.203</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>399.814423076923</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>246</v>
+      <c r="B33" s="2" t="n">
+        <v>73.803</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>165.57692307692</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>390.38461538462</v>
+        <v>123</v>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>165.583653846154</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>174.003</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>390.391346153846</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>222</v>
+      <c r="B34" s="2" t="n">
+        <v>66.603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>149.42307692308</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>379.61538461538</v>
+        <v>111</v>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>149.429807692308</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>169.203</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>379.622115384615</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>200</v>
+      <c r="B35" s="2" t="n">
+        <v>60.003</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>134.61538461538</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>370.19230769231</v>
+        <v>100</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>134.622115384615</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>165.003</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>370.199038461538</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>180</v>
+      <c r="B36" s="2" t="n">
+        <v>54.003</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>121.15384615385</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>360.76923076923</v>
+        <v>90</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>121.160576923077</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>160.803</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>360.775961538461</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>162</v>
+      <c r="B37" s="2" t="n">
+        <v>48.603</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>109.03846153846</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>351.34615384615</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>109.045192307692</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>156.603</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>351.352884615385</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>146</v>
+      <c r="B38" s="2" t="n">
+        <v>43.8</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>98.269230769231</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>341.92307692308</v>
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>98.2692307692308</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>152.403</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>341.929807692308</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>132</v>
+      <c r="B39" s="2" t="n">
+        <v>39.6</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>88.846153846154</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>333.84615384615</v>
+        <v>66</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>88.8461538461538</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>148.803</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>333.852884615385</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="n">
-        <v>118</v>
+      <c r="B40" s="2" t="n">
+        <v>35.4</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>79.423076923077</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>324.42307692308</v>
+        <v>59</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>79.4230769230769</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>144.603</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>324.429807692308</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="n">
-        <v>108</v>
+      <c r="B41" s="2" t="n">
+        <v>32.4</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>72.692307692308</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>316.34615384615</v>
+        <v>54</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>72.6923076923077</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>141.003</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>316.352884615385</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="n">
-        <v>96</v>
+      <c r="B42" s="2" t="n">
+        <v>28.8</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>64.615384615385</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>308.26923076923</v>
+        <v>48</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>64.6153846153846</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>137.403</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>308.275961538462</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="n">
-        <v>88</v>
+      <c r="B43" s="2" t="n">
+        <v>26.4</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>59.230769230769</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>300.19230769231</v>
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>59.2307692307692</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>133.803</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>300.199038461538</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="n">
-        <v>78</v>
+      <c r="B44" s="2" t="n">
+        <v>23.4</v>
       </c>
       <c r="C44" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="n">
         <v>52.5</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>293.46153846154</v>
+      <c r="E44" s="2" t="n">
+        <v>130.803</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>293.468269230769</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>70</v>
+      <c r="B45" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>47.115384615385</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>285.38461538462</v>
+        <v>35</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>47.1153846153846</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>127.203</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>285.391346153846</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="n">
-        <v>64</v>
+      <c r="B46" s="2" t="n">
+        <v>19.2</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43.076923076923</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>278.65384615385</v>
+        <v>32</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>43.0769230769231</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>124.203</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>278.660576923077</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="n">
-        <v>58</v>
+      <c r="B47" s="2" t="n">
+        <v>17.4</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>39.038461538462</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>270.57692307692</v>
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>39.0384615384615</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>120.603</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>270.583653846154</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="n">
-        <v>52</v>
+      <c r="B48" s="2" t="n">
+        <v>15.6</v>
       </c>
       <c r="C48" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D48" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>263.84615384615</v>
+      <c r="E48" s="2" t="n">
+        <v>117.603</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>263.852884615385</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>46</v>
+      <c r="B49" s="2" t="n">
+        <v>13.8</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>30.961538461538</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>257.11538461538</v>
+        <v>23</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>30.9615384615384</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>114.603</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>257.122115384615</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="n">
-        <v>42</v>
+      <c r="B50" s="2" t="n">
+        <v>12.6</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>28.269230769231</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>250.38461538462</v>
+        <v>21</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>28.2692307692307</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>111.603</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>250.391346153846</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="n">
-        <v>38</v>
+      <c r="B51" s="2" t="n">
+        <v>11.4</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>25.576923076923</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>243.65384615385</v>
+        <v>19</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>25.5769230769231</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>108.603</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>243.660576923077</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="1" t="n">
-        <v>34</v>
+      <c r="B52" s="2" t="n">
+        <v>10.2</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>22.884615384615</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>238.26923076923</v>
+        <v>17</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>22.8846153846154</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>106.203</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>238.275961538462</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="1" t="n">
-        <v>32</v>
+      <c r="B53" s="2" t="n">
+        <v>9.59999999999999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>21.538461538462</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>231.53846153846</v>
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>21.5384615384615</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>103.203</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>231.545192307692</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="n">
-        <v>28</v>
+      <c r="B54" s="2" t="n">
+        <v>8.39999999999999</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>18.846153846154</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>226.15384615385</v>
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>18.8461538461538</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>100.803</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>226.160576923077</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="1" t="n">
-        <v>26</v>
+      <c r="B55" s="2" t="n">
+        <v>7.79999999999999</v>
       </c>
       <c r="C55" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3" t="n">
         <v>17.5</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>219.42307692308</v>
+      <c r="E55" s="2" t="n">
+        <v>97.803</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>219.429807692308</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="1" t="n">
-        <v>24</v>
+      <c r="B56" s="2" t="n">
+        <v>7.19999999999999</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>16.153846153846</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>214.03846153846</v>
+        <v>12</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>16.1538461538461</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>95.403</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>214.045192307692</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="n">
-        <v>20</v>
+      <c r="B57" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>13.461538461538</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>208.65384615385</v>
+        <v>10</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>13.4615384615384</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>93.003</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>208.660576923077</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="1" t="n">
-        <v>18</v>
+      <c r="B58" s="2" t="n">
+        <v>5.39999999999999</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>12.115384615385</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>203.26923076923</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>12.1153846153846</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>90.603</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>203.275961538462</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="1" t="n">
-        <v>18</v>
+      <c r="B59" s="2" t="n">
+        <v>5.39999999999999</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>12.115384615385</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>197.88461538462</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>12.1153846153846</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>88.203</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>197.891346153846</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>16</v>
+      <c r="B60" s="2" t="n">
+        <v>4.79999999999999</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>10.769230769231</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>193.84615384615</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>10.7692307692308</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>86.403</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>193.852884615385</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="1" t="n">
-        <v>14</v>
+      <c r="B61" s="2" t="n">
+        <v>4.2</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>9.4230769230769</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>188.46153846154</v>
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>9.42307692307691</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>84.003</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>188.468269230769</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="1" t="n">
-        <v>12</v>
+      <c r="B62" s="2" t="n">
+        <v>3.59999999999999</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>8.0769230769231</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>183.07692307692</v>
+        <v>6</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>8.07692307692307</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>81.603</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>183.083653846154</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="1" t="n">
-        <v>12</v>
+      <c r="B63" s="2" t="n">
+        <v>3.59999999999999</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>8.0769230769231</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>179.03846153846</v>
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>8.07692307692307</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>79.803</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>179.045192307692</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="1" t="n">
-        <v>10</v>
+      <c r="B64" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>6.7307692307692</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>173.65384615385</v>
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>6.73076923076922</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>77.403</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>173.660576923077</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="1" t="n">
-        <v>10</v>
+      <c r="B65" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>6.7307692307692</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>169.61538461538</v>
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>6.73076923076922</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>75.603</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>169.622115384615</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="1" t="n">
-        <v>8</v>
+      <c r="B66" s="2" t="n">
+        <v>2.39999999999999</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>5.3846153846154</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>165.57692307692</v>
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>5.38461538461537</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>73.803</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>165.583653846154</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="1" t="n">
-        <v>8</v>
+      <c r="B67" s="2" t="n">
+        <v>2.39999999999999</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>5.3846153846154</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>161.53846153846</v>
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>5.38461538461537</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>72.003</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>161.545192307692</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="1" t="n">
-        <v>8</v>
+      <c r="B68" s="2" t="n">
+        <v>2.39999999999999</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>5.3846153846154</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>157.5</v>
+        <v>4</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>5.38461538461537</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>70.203</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>157.506730769231</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="1" t="n">
-        <v>6</v>
+      <c r="B69" s="2" t="n">
+        <v>1.79999999999999</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>4.0384615384615</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>153.46153846154</v>
+        <v>3</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>4.03846153846153</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>68.403</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>153.468269230769</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="1" t="n">
-        <v>6</v>
+      <c r="B70" s="2" t="n">
+        <v>1.79999999999999</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>4.0384615384615</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>149.42307692308</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>4.03846153846153</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>66.603</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>149.429807692308</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="1" t="n">
-        <v>6</v>
+      <c r="B71" s="2" t="n">
+        <v>1.79999999999999</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>4.0384615384615</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>145.38461538462</v>
+        <v>3</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>4.03846153846153</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>64.803</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>145.391346153846</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="1" t="n">
-        <v>4</v>
+      <c r="B72" s="2" t="n">
+        <v>1.19999999999999</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>2.6923076923077</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>141.34615384615</v>
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>2.69230769230768</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>63.003</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>141.352884615385</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="1" t="n">
-        <v>4</v>
+      <c r="B73" s="2" t="n">
+        <v>1.19999999999999</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>2.6923076923077</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>137.30769230769</v>
+        <v>2</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>2.69230769230768</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>61.203</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>137.314423076923</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="1" t="n">
-        <v>4</v>
+      <c r="B74" s="2" t="n">
+        <v>1.19999999999999</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>2.6923076923077</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>134.61538461538</v>
+        <v>2</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>2.69230769230768</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>60.003</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" s="4" t="n">
+        <v>134.622115384615</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="1" t="n">
-        <v>4</v>
+      <c r="B75" s="2" t="n">
+        <v>1.19999999999999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>2.6923076923077</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>130.57692307692</v>
+        <v>2</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>2.69230769230768</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>58.203</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>130.583653846154</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="1" t="n">
-        <v>4</v>
+      <c r="B76" s="2" t="n">
+        <v>1.19999999999999</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>2.6923076923077</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>127.88461538462</v>
+        <v>2</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>2.69230769230768</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>57.003</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G76" s="4" t="n">
+        <v>127.891346153846</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="1" t="n">
-        <v>4</v>
+      <c r="B77" s="2" t="n">
+        <v>1.19999999999999</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>2.6923076923077</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>123.84615384615</v>
+        <v>2</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>2.69230769230768</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>55.203</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="G77" s="4" t="n">
+        <v>123.852884615385</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="1" t="n">
-        <v>2</v>
+      <c r="B78" s="2" t="n">
+        <v>0.599999999999994</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>121.15384615385</v>
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>1.34615384615383</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>54.003</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>121.160576923077</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="1" t="n">
-        <v>2</v>
+      <c r="B79" s="2" t="n">
+        <v>0.599999999999994</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>118.46153846154</v>
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>1.34615384615383</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>52.803</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>118.468269230769</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="1" t="n">
-        <v>2</v>
+      <c r="B80" s="2" t="n">
+        <v>0.599999999999994</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>114.42307692308</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>1.34615384615383</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>51.003</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>114.429807692308</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="1" t="n">
-        <v>2</v>
+      <c r="B81" s="2" t="n">
+        <v>0.599999999999994</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>111.73076923077</v>
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>1.34615384615383</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>49.803</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>111.7375</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="n">
-        <v>2</v>
+      <c r="B82" s="2" t="n">
+        <v>0.599999999999994</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>1.3461538461538</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>109.03846153846</v>
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>1.34615384615383</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>48.603</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>109.045192307692</v>
       </c>
     </row>
   </sheetData>

--- a/punch04.xlsx
+++ b/punch04.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">流行時刻（日）</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">65%削減（感染者数）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80%削減 (SIR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">差分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65%削減 (SIR)</t>
   </si>
 </sst>
 </file>
@@ -235,10 +244,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB2B2B2"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -251,7 +260,1250 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="line"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80%削減 (SIR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3670446774689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8688109213178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5547472825669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4924518631108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7743337601488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5267193355793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9223004752931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.197151132901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.673988239386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.793967662586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.160145572648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.596882473451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.23103322436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.602903885115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108.81787198734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.75354105884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.34271119224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>277.95980345072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>379.94835530352</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>519.34070369238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>467.92651079724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>421.60156816612</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>379.86224681889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>342.25473171702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>308.37009934788</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>277.8398808409</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>250.33206289035</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>225.5474834195</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>203.21658313131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>183.09647789487</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164.96832035218</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148.63492223139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>133.91861165315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>120.65930224346</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>108.71275314725</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>97.949001094249</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>88.250947525045</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79.513085459459</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71.640352299379</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.547096120044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58.156144231668</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.397963900532</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.209906116889</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.535524196974</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>38.323959817668</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.529389813714</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.110527726505</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.030174687671</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.254814756174</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.754250310284</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.501273530771</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.471370403686</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.642454024384</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.994624302785</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.50995145683</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.172280939559</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.967057678271</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.881167714144</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.902795519845</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0212954431747</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.2270758783414</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.511494904894</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.8667662590455</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.285874614489</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.7624992510631</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.290945280853</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.8660816835182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4832854767058</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1383914141422</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8276466641331</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5476699753732</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2954148857919</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0681365741384</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8633619936445</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6788629628082</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5126319205147</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3628600816975</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.227917755861</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1063366143181</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99679371319693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65%削減 (SIR)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3670446774689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8688109213178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5547472825669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4924518631108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7743337601488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5267193355793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9223004752931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.197151132901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.673988239386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.793967662586</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.160145572648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.596882473451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.23103322436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.602903885115</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108.81787198734</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.75354105884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.34271119224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>277.95980345072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>379.94835530352</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>519.34070369238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>505.95672432992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>492.91495053624</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480.20677147749</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>467.8237858775</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>455.75779728558</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>444.00080943186</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>432.54502166944</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>421.38282450288</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>410.50679520238</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>399.90969350273</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>389.5844573866</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>379.52419895099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>369.72220035627</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360.17190985669</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350.86693791154</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>341.80105337592</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>332.96817977017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>324.36239162685</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>315.97791091434</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>307.80910353578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>299.85047590253</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>292.09667158081</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>284.54246801052</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>277.18277329508</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>270.01262306119</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>263.02717738728</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>256.22171779968</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>249.59164433511</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>243.13247266861</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>236.83983130555</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>230.70945883676</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>224.73720125543</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>218.91900933488</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>213.2509360659</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>207.72913415257</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>202.34985356554</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>197.10943915151</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>192.00432829798</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>187.03104865207</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>182.18621589232</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>177.46653155257</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>172.86878089664</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>168.38983084295</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>164.02662793798</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159.77619637757</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>155.635636075</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>151.60212077502</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>147.6728962127</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>143.84527831619</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>140.11665145247</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>136.48446671521</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132.94624025365</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>129.49955164182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>126.14204228707</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>122.87141387707</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>119.68542686446</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>116.58189898831</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>113.55870383145</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>110.61376941311</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>107.74507681573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="25423945"/>
+        <c:axId val="77744160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="25423945"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77744160"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77744160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Hiragino Sans"/>
+                <a:ea typeface="Hiragino Sans"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25423945"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Hiragino Sans"/>
+              <a:ea typeface="Hiragino Sans"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -301,6 +1553,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -856,6 +2109,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1370,18 +2624,18 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30641113"/>
-        <c:axId val="37305470"/>
+        <c:axId val="96181807"/>
+        <c:axId val="27465827"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30641113"/>
+        <c:axId val="96181807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1404,12 +2658,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37305470"/>
+        <c:crossAx val="27465827"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37305470"/>
+        <c:axId val="27465827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +2701,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30641113"/>
+        <c:crossAx val="96181807"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1500,16 +2754,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>806400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285480</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1517,12 +2771,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9014760" y="117360"/>
+        <a:off x="806400" y="1138320"/>
+        <a:ext cx="5763600" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>707400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5632920" y="1141200"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1538,21 +2822,23 @@
   </sheetPr>
   <dimension ref="A1:AMJ82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,6 +2863,18 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -1600,6 +2898,20 @@
       <c r="G2" s="4" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <f aca="false">ABS(D2-I2)</f>
+        <v>0.34615384615385</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <f aca="false">ABS(G2-K2)</f>
+        <v>0.34615384615385</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1623,6 +2935,20 @@
       <c r="G3" s="4" t="n">
         <v>1.34615384615385</v>
       </c>
+      <c r="I3" s="1" t="n">
+        <v>1.3670446774689</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <f aca="false">ABS(D3-I3)</f>
+        <v>0.02089083131505</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1.3670446774689</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">ABS(G3-K3)</f>
+        <v>0.02089083131505</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -1646,6 +2972,20 @@
       <c r="G4" s="4" t="n">
         <v>2.6923076923077</v>
       </c>
+      <c r="I4" s="1" t="n">
+        <v>1.8688109213178</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">ABS(D4-I4)</f>
+        <v>0.8234967709899</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1.8688109213178</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <f aca="false">ABS(G4-K4)</f>
+        <v>0.8234967709899</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -1669,6 +3009,20 @@
       <c r="G5" s="4" t="n">
         <v>2.6923076923077</v>
       </c>
+      <c r="I5" s="1" t="n">
+        <v>2.5547472825669</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">ABS(D5-I5)</f>
+        <v>0.1375604097408</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>2.5547472825669</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <f aca="false">ABS(G5-K5)</f>
+        <v>0.1375604097408</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -1692,6 +3046,20 @@
       <c r="G6" s="4" t="n">
         <v>4.03846153846154</v>
       </c>
+      <c r="I6" s="1" t="n">
+        <v>3.4924518631108</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">ABS(D6-I6)</f>
+        <v>0.54600967535074</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>3.4924518631108</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">ABS(G6-K6)</f>
+        <v>0.54600967535074</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1715,6 +3083,20 @@
       <c r="G7" s="4" t="n">
         <v>5.38461538461539</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <v>4.7743337601488</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">ABS(D7-I7)</f>
+        <v>0.61028162446659</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>4.7743337601488</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">ABS(G7-K7)</f>
+        <v>0.61028162446659</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -1738,6 +3120,20 @@
       <c r="G8" s="4" t="n">
         <v>6.73076923076923</v>
       </c>
+      <c r="I8" s="1" t="n">
+        <v>6.5267193355793</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <f aca="false">ABS(D8-I8)</f>
+        <v>0.20404989518993</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6.5267193355793</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <f aca="false">ABS(G8-K8)</f>
+        <v>0.20404989518993</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1761,6 +3157,20 @@
       <c r="G9" s="4" t="n">
         <v>9.42307692307693</v>
       </c>
+      <c r="I9" s="1" t="n">
+        <v>8.9223004752931</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <f aca="false">ABS(D9-I9)</f>
+        <v>0.50077644778383</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>8.9223004752931</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <f aca="false">ABS(G9-K9)</f>
+        <v>0.50077644778383</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1784,6 +3194,20 @@
       <c r="G10" s="4" t="n">
         <v>12.1153846153846</v>
       </c>
+      <c r="I10" s="1" t="n">
+        <v>12.197151132901</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <f aca="false">ABS(D10-I10)</f>
+        <v>0.0817665175163995</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>12.197151132901</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <f aca="false">ABS(G10-K10)</f>
+        <v>0.0817665175163995</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1807,6 +3231,20 @@
       <c r="G11" s="4" t="n">
         <v>17.5</v>
       </c>
+      <c r="I11" s="1" t="n">
+        <v>16.673988239386</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <f aca="false">ABS(D11-I11)</f>
+        <v>0.826011760614001</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>16.673988239386</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">ABS(G11-K11)</f>
+        <v>0.826011760614001</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1830,6 +3268,20 @@
       <c r="G12" s="4" t="n">
         <v>22.8846153846154</v>
       </c>
+      <c r="I12" s="1" t="n">
+        <v>22.793967662586</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">ABS(D12-I12)</f>
+        <v>0.0906477220294022</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>22.793967662586</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">ABS(G12-K12)</f>
+        <v>0.0906477220294022</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1853,6 +3305,20 @@
       <c r="G13" s="4" t="n">
         <v>30.9615384615385</v>
       </c>
+      <c r="I13" s="1" t="n">
+        <v>31.160145572648</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">ABS(D13-I13)</f>
+        <v>0.198607111109499</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>31.160145572648</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">ABS(G13-K13)</f>
+        <v>0.198607111109499</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1876,6 +3342,20 @@
       <c r="G14" s="4" t="n">
         <v>43.0769230769231</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <v>42.596882473451</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">ABS(D14-I14)</f>
+        <v>0.480040603472105</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>42.596882473451</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">ABS(G14-K14)</f>
+        <v>0.480040603472105</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1899,6 +3379,20 @@
       <c r="G15" s="4" t="n">
         <v>59.2307692307692</v>
       </c>
+      <c r="I15" s="1" t="n">
+        <v>58.23103322436</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">ABS(D15-I15)</f>
+        <v>0.999736006409201</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>58.23103322436</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <f aca="false">ABS(G15-K15)</f>
+        <v>0.999736006409201</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1922,6 +3416,20 @@
       <c r="G16" s="4" t="n">
         <v>79.4230769230769</v>
       </c>
+      <c r="I16" s="1" t="n">
+        <v>79.602903885115</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <f aca="false">ABS(D16-I16)</f>
+        <v>0.179826962038092</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>79.602903885115</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <f aca="false">ABS(G16-K16)</f>
+        <v>0.179826962038092</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1945,6 +3453,20 @@
       <c r="G17" s="4" t="n">
         <v>109.045192307692</v>
       </c>
+      <c r="I17" s="1" t="n">
+        <v>108.81787198734</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">ABS(D17-I17)</f>
+        <v>0.227320320352007</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>108.81787198734</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <f aca="false">ABS(G17-K17)</f>
+        <v>0.227320320352007</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -1968,6 +3490,20 @@
       <c r="G18" s="4" t="n">
         <v>149.429807692308</v>
       </c>
+      <c r="I18" s="1" t="n">
+        <v>148.75354105884</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <f aca="false">ABS(D18-I18)</f>
+        <v>0.676266633468003</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>148.75354105884</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <f aca="false">ABS(G18-K18)</f>
+        <v>0.676266633468003</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -1991,6 +3527,20 @@
       <c r="G19" s="4" t="n">
         <v>203.275961538462</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <v>203.34271119224</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">ABS(D19-I19)</f>
+        <v>0.0667496537779755</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>203.34271119224</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">ABS(G19-K19)</f>
+        <v>0.0667496537779755</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -2014,6 +3564,20 @@
       <c r="G20" s="4" t="n">
         <v>278.660576923077</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>277.95980345072</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <f aca="false">ABS(D20-I20)</f>
+        <v>0.700773472356957</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>277.95980345072</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">ABS(G20-K20)</f>
+        <v>0.700773472356957</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -2037,6 +3601,20 @@
       <c r="G21" s="4" t="n">
         <v>379.622115384615</v>
       </c>
+      <c r="I21" s="1" t="n">
+        <v>379.94835530352</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">ABS(D21-I21)</f>
+        <v>0.326239918905003</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>379.94835530352</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">ABS(G21-K21)</f>
+        <v>0.326239918905003</v>
+      </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -2060,6 +3638,20 @@
       <c r="G22" s="6" t="n">
         <v>519.622115384615</v>
       </c>
+      <c r="I22" s="5" t="n">
+        <v>519.34070369238</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <f aca="false">ABS(D22-I22)</f>
+        <v>0.281411692234997</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>519.34070369238</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <f aca="false">ABS(G22-K22)</f>
+        <v>0.281411692234997</v>
+      </c>
       <c r="AMJ22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,6 +3676,20 @@
       <c r="G23" s="4" t="n">
         <v>506.160576923077</v>
       </c>
+      <c r="I23" s="1" t="n">
+        <v>467.92651079724</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <f aca="false">ABS(D23-I23)</f>
+        <v>0.804395412625013</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>505.95672432992</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <f aca="false">ABS(G23-K23)</f>
+        <v>0.203852593156967</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -2107,6 +3713,20 @@
       <c r="G24" s="4" t="n">
         <v>492.699038461539</v>
       </c>
+      <c r="I24" s="1" t="n">
+        <v>421.60156816612</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <f aca="false">ABS(D24-I24)</f>
+        <v>0.248683550734995</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>492.91495053624</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <f aca="false">ABS(G24-K24)</f>
+        <v>0.215912074701009</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -2130,6 +3750,20 @@
       <c r="G25" s="4" t="n">
         <v>480.583653846154</v>
       </c>
+      <c r="I25" s="1" t="n">
+        <v>379.86224681889</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <f aca="false">ABS(D25-I25)</f>
+        <v>0.240131434275042</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>480.20677147749</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <f aca="false">ABS(G25-K25)</f>
+        <v>0.376882368663985</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -2153,6 +3787,20 @@
       <c r="G26" s="4" t="n">
         <v>467.122115384615</v>
       </c>
+      <c r="I26" s="1" t="n">
+        <v>342.25473171702</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <f aca="false">ABS(D26-I26)</f>
+        <v>0.324924024712004</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>467.8237858775</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <f aca="false">ABS(G26-K26)</f>
+        <v>0.701670492885</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -2176,6 +3824,20 @@
       <c r="G27" s="4" t="n">
         <v>456.352884615385</v>
       </c>
+      <c r="I27" s="1" t="n">
+        <v>308.37009934788</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <f aca="false">ABS(D27-I27)</f>
+        <v>0.09413780941901</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>455.75779728558</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">ABS(G27-K27)</f>
+        <v>0.595087329804983</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -2199,6 +3861,20 @@
       <c r="G28" s="4" t="n">
         <v>444.2375</v>
       </c>
+      <c r="I28" s="1" t="n">
+        <v>277.8398808409</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">ABS(D28-I28)</f>
+        <v>0.820696082176994</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>444.00080943186</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">ABS(G28-K28)</f>
+        <v>0.236690568140034</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -2222,6 +3898,20 @@
       <c r="G29" s="4" t="n">
         <v>432.122115384615</v>
       </c>
+      <c r="I29" s="1" t="n">
+        <v>250.33206289035</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <f aca="false">ABS(D29-I29)</f>
+        <v>0.0592832634960132</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>432.54502166944</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <f aca="false">ABS(G29-K29)</f>
+        <v>0.422906284825046</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -2245,6 +3935,20 @@
       <c r="G30" s="4" t="n">
         <v>421.352884615385</v>
       </c>
+      <c r="I30" s="1" t="n">
+        <v>225.5474834195</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">ABS(D30-I30)</f>
+        <v>0.613093503577005</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>421.38282450288</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">ABS(G30-K30)</f>
+        <v>0.0299398874950043</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -2268,6 +3972,20 @@
       <c r="G31" s="4" t="n">
         <v>410.583653846154</v>
       </c>
+      <c r="I31" s="1" t="n">
+        <v>203.21658313131</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <f aca="false">ABS(D31-I31)</f>
+        <v>0.0593784071520247</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>410.50679520238</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <f aca="false">ABS(G31-K31)</f>
+        <v>0.0768586437740169</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -2291,6 +4009,20 @@
       <c r="G32" s="4" t="n">
         <v>399.814423076923</v>
       </c>
+      <c r="I32" s="1" t="n">
+        <v>183.09647789487</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <f aca="false">ABS(D32-I32)</f>
+        <v>0.0128240487159985</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>399.90969350273</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <f aca="false">ABS(G32-K32)</f>
+        <v>0.0952704258070298</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -2314,6 +4046,20 @@
       <c r="G33" s="4" t="n">
         <v>390.391346153846</v>
       </c>
+      <c r="I33" s="1" t="n">
+        <v>164.96832035218</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">ABS(D33-I33)</f>
+        <v>0.615333493973992</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>389.5844573866</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <f aca="false">ABS(G33-K33)</f>
+        <v>0.806888767245994</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -2337,6 +4083,20 @@
       <c r="G34" s="4" t="n">
         <v>379.622115384615</v>
       </c>
+      <c r="I34" s="1" t="n">
+        <v>148.63492223139</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <f aca="false">ABS(D34-I34)</f>
+        <v>0.79488546091801</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>379.52419895099</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <f aca="false">ABS(G34-K34)</f>
+        <v>0.0979164336249596</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -2360,6 +4120,20 @@
       <c r="G35" s="4" t="n">
         <v>370.199038461538</v>
       </c>
+      <c r="I35" s="1" t="n">
+        <v>133.91861165315</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <f aca="false">ABS(D35-I35)</f>
+        <v>0.703503731464991</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>369.72220035627</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <f aca="false">ABS(G35-K35)</f>
+        <v>0.47683810526803</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -2383,6 +4157,20 @@
       <c r="G36" s="4" t="n">
         <v>360.775961538461</v>
       </c>
+      <c r="I36" s="1" t="n">
+        <v>120.65930224346</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">ABS(D36-I36)</f>
+        <v>0.501274679616998</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>360.17190985669</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <f aca="false">ABS(G36-K36)</f>
+        <v>0.604051681771011</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -2406,6 +4194,20 @@
       <c r="G37" s="4" t="n">
         <v>351.352884615385</v>
       </c>
+      <c r="I37" s="1" t="n">
+        <v>108.71275314725</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">ABS(D37-I37)</f>
+        <v>0.332439160442007</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>350.86693791154</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <f aca="false">ABS(G37-K37)</f>
+        <v>0.485946703845002</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -2429,6 +4231,20 @@
       <c r="G38" s="4" t="n">
         <v>341.929807692308</v>
       </c>
+      <c r="I38" s="1" t="n">
+        <v>97.949001094249</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <f aca="false">ABS(D38-I38)</f>
+        <v>0.320229674981803</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>341.80105337592</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <f aca="false">ABS(G38-K38)</f>
+        <v>0.128754316387983</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -2452,6 +4268,20 @@
       <c r="G39" s="4" t="n">
         <v>333.852884615385</v>
       </c>
+      <c r="I39" s="1" t="n">
+        <v>88.250947525045</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <f aca="false">ABS(D39-I39)</f>
+        <v>0.59520632110879</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>332.96817977017</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <f aca="false">ABS(G39-K39)</f>
+        <v>0.884704845214969</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -2475,6 +4305,20 @@
       <c r="G40" s="4" t="n">
         <v>324.429807692308</v>
       </c>
+      <c r="I40" s="1" t="n">
+        <v>79.513085459459</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <f aca="false">ABS(D40-I40)</f>
+        <v>0.0900085363821006</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>324.36239162685</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <f aca="false">ABS(G40-K40)</f>
+        <v>0.0674160654579623</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -2498,6 +4342,20 @@
       <c r="G41" s="4" t="n">
         <v>316.352884615385</v>
       </c>
+      <c r="I41" s="1" t="n">
+        <v>71.640352299379</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <f aca="false">ABS(D41-I41)</f>
+        <v>1.05195539292869</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>315.97791091434</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <f aca="false">ABS(G41-K41)</f>
+        <v>0.374973701045008</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -2521,6 +4379,20 @@
       <c r="G42" s="4" t="n">
         <v>308.275961538462</v>
       </c>
+      <c r="I42" s="1" t="n">
+        <v>64.547096120044</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <f aca="false">ABS(D42-I42)</f>
+        <v>0.068288495340596</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>307.80910353578</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <f aca="false">ABS(G42-K42)</f>
+        <v>0.466858002681988</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -2544,6 +4416,20 @@
       <c r="G43" s="4" t="n">
         <v>300.199038461538</v>
       </c>
+      <c r="I43" s="1" t="n">
+        <v>58.156144231668</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <f aca="false">ABS(D43-I43)</f>
+        <v>1.0746249991012</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>299.85047590253</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <f aca="false">ABS(G43-K43)</f>
+        <v>0.34856255900803</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -2567,6 +4453,20 @@
       <c r="G44" s="4" t="n">
         <v>293.468269230769</v>
       </c>
+      <c r="I44" s="1" t="n">
+        <v>52.397963900532</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <f aca="false">ABS(D44-I44)</f>
+        <v>0.102036099468002</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>292.09667158081</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <f aca="false">ABS(G44-K44)</f>
+        <v>1.37159764995903</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -2590,6 +4490,20 @@
       <c r="G45" s="4" t="n">
         <v>285.391346153846</v>
       </c>
+      <c r="I45" s="1" t="n">
+        <v>47.209906116889</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <f aca="false">ABS(D45-I45)</f>
+        <v>0.0945215015044028</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>284.54246801052</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <f aca="false">ABS(G45-K45)</f>
+        <v>0.848878143325976</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -2613,6 +4527,20 @@
       <c r="G46" s="4" t="n">
         <v>278.660576923077</v>
       </c>
+      <c r="I46" s="1" t="n">
+        <v>42.535524196974</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <f aca="false">ABS(D46-I46)</f>
+        <v>0.541398879949099</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>277.18277329508</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <f aca="false">ABS(G46-K46)</f>
+        <v>1.47780362799699</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -2636,6 +4564,20 @@
       <c r="G47" s="4" t="n">
         <v>270.583653846154</v>
       </c>
+      <c r="I47" s="1" t="n">
+        <v>38.323959817668</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <f aca="false">ABS(D47-I47)</f>
+        <v>0.7145017207935</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>270.01262306119</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <f aca="false">ABS(G47-K47)</f>
+        <v>0.571030784963966</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -2659,6 +4601,20 @@
       <c r="G48" s="4" t="n">
         <v>263.852884615385</v>
       </c>
+      <c r="I48" s="1" t="n">
+        <v>34.529389813714</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <f aca="false">ABS(D48-I48)</f>
+        <v>0.470610186286002</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>263.02717738728</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <f aca="false">ABS(G48-K48)</f>
+        <v>0.825707228104989</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -2682,6 +4638,20 @@
       <c r="G49" s="4" t="n">
         <v>257.122115384615</v>
       </c>
+      <c r="I49" s="1" t="n">
+        <v>31.110527726505</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <f aca="false">ABS(D49-I49)</f>
+        <v>0.148989264966602</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>256.22171779968</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <f aca="false">ABS(G49-K49)</f>
+        <v>0.900397584934979</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -2705,6 +4675,20 @@
       <c r="G50" s="4" t="n">
         <v>250.391346153846</v>
       </c>
+      <c r="I50" s="1" t="n">
+        <v>28.030174687671</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <f aca="false">ABS(D50-I50)</f>
+        <v>0.239056081559699</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>249.59164433511</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <f aca="false">ABS(G50-K50)</f>
+        <v>0.799701818735997</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -2728,6 +4712,20 @@
       <c r="G51" s="4" t="n">
         <v>243.660576923077</v>
       </c>
+      <c r="I51" s="1" t="n">
+        <v>25.254814756174</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <f aca="false">ABS(D51-I51)</f>
+        <v>0.322108320749102</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>243.13247266861</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <f aca="false">ABS(G51-K51)</f>
+        <v>0.528104254466996</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -2751,6 +4749,20 @@
       <c r="G52" s="4" t="n">
         <v>238.275961538462</v>
       </c>
+      <c r="I52" s="1" t="n">
+        <v>22.754250310284</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <f aca="false">ABS(D52-I52)</f>
+        <v>0.130365074331401</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>236.83983130555</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <f aca="false">ABS(G52-K52)</f>
+        <v>1.43613023291201</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -2774,6 +4786,20 @@
       <c r="G53" s="4" t="n">
         <v>231.545192307692</v>
       </c>
+      <c r="I53" s="1" t="n">
+        <v>20.501273530771</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <f aca="false">ABS(D53-I53)</f>
+        <v>1.0371880076905</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>230.70945883676</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <f aca="false">ABS(G53-K53)</f>
+        <v>0.835733470931984</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -2797,6 +4823,20 @@
       <c r="G54" s="4" t="n">
         <v>226.160576923077</v>
       </c>
+      <c r="I54" s="1" t="n">
+        <v>18.471370403686</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <f aca="false">ABS(D54-I54)</f>
+        <v>0.374783442467802</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>224.73720125543</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <f aca="false">ABS(G54-K54)</f>
+        <v>1.42337566764701</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -2820,6 +4860,20 @@
       <c r="G55" s="4" t="n">
         <v>219.429807692308</v>
       </c>
+      <c r="I55" s="1" t="n">
+        <v>16.642454024384</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <f aca="false">ABS(D55-I55)</f>
+        <v>0.857545975615999</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>218.91900933488</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <f aca="false">ABS(G55-K55)</f>
+        <v>0.510798357428001</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -2843,6 +4897,20 @@
       <c r="G56" s="4" t="n">
         <v>214.045192307692</v>
       </c>
+      <c r="I56" s="1" t="n">
+        <v>14.994624302785</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <f aca="false">ABS(D56-I56)</f>
+        <v>1.1592218510611</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>213.2509360659</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <f aca="false">ABS(G56-K56)</f>
+        <v>0.794256241791999</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -2866,6 +4934,20 @@
       <c r="G57" s="4" t="n">
         <v>208.660576923077</v>
       </c>
+      <c r="I57" s="1" t="n">
+        <v>13.50995145683</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <f aca="false">ABS(D57-I57)</f>
+        <v>0.048412995291601</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>207.72913415257</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <f aca="false">ABS(G57-K57)</f>
+        <v>0.931442770507005</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -2889,6 +4971,20 @@
       <c r="G58" s="4" t="n">
         <v>203.275961538462</v>
       </c>
+      <c r="I58" s="1" t="n">
+        <v>12.172280939559</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <f aca="false">ABS(D58-I58)</f>
+        <v>0.0568963241743994</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>202.34985356554</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <f aca="false">ABS(G58-K58)</f>
+        <v>0.926107972922011</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -2912,6 +5008,20 @@
       <c r="G59" s="4" t="n">
         <v>197.891346153846</v>
       </c>
+      <c r="I59" s="1" t="n">
+        <v>10.967057678271</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <f aca="false">ABS(D59-I59)</f>
+        <v>1.1483269371136</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>197.10943915151</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <f aca="false">ABS(G59-K59)</f>
+        <v>0.781907002335998</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -2935,6 +5045,20 @@
       <c r="G60" s="4" t="n">
         <v>193.852884615385</v>
       </c>
+      <c r="I60" s="1" t="n">
+        <v>9.881167714144</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <f aca="false">ABS(D60-I60)</f>
+        <v>0.8880630550868</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>192.00432829798</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <f aca="false">ABS(G60-K60)</f>
+        <v>1.84855631740498</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -2958,6 +5082,20 @@
       <c r="G61" s="4" t="n">
         <v>188.468269230769</v>
       </c>
+      <c r="I61" s="1" t="n">
+        <v>8.902795519845</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <f aca="false">ABS(D61-I61)</f>
+        <v>0.520281403231909</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>187.03104865207</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <f aca="false">ABS(G61-K61)</f>
+        <v>1.437220578699</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -2981,6 +5119,20 @@
       <c r="G62" s="4" t="n">
         <v>183.083653846154</v>
       </c>
+      <c r="I62" s="1" t="n">
+        <v>8.0212954431747</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <f aca="false">ABS(D62-I62)</f>
+        <v>0.0556276337483688</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>182.18621589232</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <f aca="false">ABS(G62-K62)</f>
+        <v>0.897437953833986</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -3004,6 +5156,20 @@
       <c r="G63" s="4" t="n">
         <v>179.045192307692</v>
       </c>
+      <c r="I63" s="1" t="n">
+        <v>7.2270758783414</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <f aca="false">ABS(D63-I63)</f>
+        <v>0.84984719858167</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>177.46653155257</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <f aca="false">ABS(G63-K63)</f>
+        <v>1.578660755122</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -3027,6 +5193,20 @@
       <c r="G64" s="4" t="n">
         <v>173.660576923077</v>
       </c>
+      <c r="I64" s="1" t="n">
+        <v>6.511494904894</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <f aca="false">ABS(D64-I64)</f>
+        <v>0.219274325875221</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>172.86878089664</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <f aca="false">ABS(G64-K64)</f>
+        <v>0.791796026436998</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -3050,6 +5230,20 @@
       <c r="G65" s="4" t="n">
         <v>169.622115384615</v>
       </c>
+      <c r="I65" s="1" t="n">
+        <v>5.8667662590455</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <f aca="false">ABS(D65-I65)</f>
+        <v>0.86400297172372</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>168.38983084295</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <f aca="false">ABS(G65-K65)</f>
+        <v>1.232284541665</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -3073,6 +5267,20 @@
       <c r="G66" s="4" t="n">
         <v>165.583653846154</v>
       </c>
+      <c r="I66" s="1" t="n">
+        <v>5.285874614489</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <f aca="false">ABS(D66-I66)</f>
+        <v>0.0987407701263701</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>164.02662793798</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <f aca="false">ABS(G66-K66)</f>
+        <v>1.55702590817398</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -3096,6 +5304,20 @@
       <c r="G67" s="4" t="n">
         <v>161.545192307692</v>
       </c>
+      <c r="I67" s="1" t="n">
+        <v>4.7624992510631</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <f aca="false">ABS(D67-I67)</f>
+        <v>0.62211613355227</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>159.77619637757</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <f aca="false">ABS(G67-K67)</f>
+        <v>1.768995930122</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -3119,6 +5341,20 @@
       <c r="G68" s="4" t="n">
         <v>157.506730769231</v>
       </c>
+      <c r="I68" s="1" t="n">
+        <v>4.290945280853</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <f aca="false">ABS(D68-I68)</f>
+        <v>1.09367010376237</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>155.635636075</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <f aca="false">ABS(G68-K68)</f>
+        <v>1.871094694231</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -3142,6 +5378,20 @@
       <c r="G69" s="4" t="n">
         <v>153.468269230769</v>
       </c>
+      <c r="I69" s="1" t="n">
+        <v>3.8660816835182</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <f aca="false">ABS(D69-I69)</f>
+        <v>0.17237985494333</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>151.60212077502</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <f aca="false">ABS(G69-K69)</f>
+        <v>1.866148455749</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -3165,6 +5415,20 @@
       <c r="G70" s="4" t="n">
         <v>149.429807692308</v>
       </c>
+      <c r="I70" s="1" t="n">
+        <v>3.4832854767058</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <f aca="false">ABS(D70-I70)</f>
+        <v>0.55517606175573</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>147.6728962127</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <f aca="false">ABS(G70-K70)</f>
+        <v>1.75691147960799</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -3188,6 +5452,20 @@
       <c r="G71" s="4" t="n">
         <v>145.391346153846</v>
       </c>
+      <c r="I71" s="1" t="n">
+        <v>3.1383914141422</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <f aca="false">ABS(D71-I71)</f>
+        <v>0.90007012431933</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>143.84527831619</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <f aca="false">ABS(G71-K71)</f>
+        <v>1.54606783765601</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -3211,6 +5489,20 @@
       <c r="G72" s="4" t="n">
         <v>141.352884615385</v>
       </c>
+      <c r="I72" s="1" t="n">
+        <v>2.8276466641331</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <f aca="false">ABS(D72-I72)</f>
+        <v>0.13533897182542</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>140.11665145247</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <f aca="false">ABS(G72-K72)</f>
+        <v>1.236233162915</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -3234,6 +5526,20 @@
       <c r="G73" s="4" t="n">
         <v>137.314423076923</v>
       </c>
+      <c r="I73" s="1" t="n">
+        <v>2.5476699753732</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <f aca="false">ABS(D73-I73)</f>
+        <v>0.14463771693448</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>136.48446671521</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <f aca="false">ABS(G73-K73)</f>
+        <v>0.829956361712988</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -3257,6 +5563,20 @@
       <c r="G74" s="4" t="n">
         <v>134.622115384615</v>
       </c>
+      <c r="I74" s="1" t="n">
+        <v>2.2954148857919</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <f aca="false">ABS(D74-I74)</f>
+        <v>0.39689280651578</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>132.94624025365</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <f aca="false">ABS(G74-K74)</f>
+        <v>1.67587513096501</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -3280,6 +5600,20 @@
       <c r="G75" s="4" t="n">
         <v>130.583653846154</v>
       </c>
+      <c r="I75" s="1" t="n">
+        <v>2.0681365741384</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <f aca="false">ABS(D75-I75)</f>
+        <v>0.62417111816928</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>129.49955164182</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <f aca="false">ABS(G75-K75)</f>
+        <v>1.08410220433399</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -3303,6 +5637,20 @@
       <c r="G76" s="4" t="n">
         <v>127.891346153846</v>
       </c>
+      <c r="I76" s="1" t="n">
+        <v>1.8633619936445</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <f aca="false">ABS(D76-I76)</f>
+        <v>0.82894569866318</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>126.14204228707</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <f aca="false">ABS(G76-K76)</f>
+        <v>1.749303866776</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -3326,6 +5674,20 @@
       <c r="G77" s="4" t="n">
         <v>123.852884615385</v>
       </c>
+      <c r="I77" s="1" t="n">
+        <v>1.6788629628082</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <f aca="false">ABS(D77-I77)</f>
+        <v>1.01344472949948</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>122.87141387707</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <f aca="false">ABS(G77-K77)</f>
+        <v>0.981470738314997</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -3349,6 +5711,20 @@
       <c r="G78" s="4" t="n">
         <v>121.160576923077</v>
       </c>
+      <c r="I78" s="1" t="n">
+        <v>1.5126319205147</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <f aca="false">ABS(D78-I78)</f>
+        <v>0.16647807436087</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>119.68542686446</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <f aca="false">ABS(G78-K78)</f>
+        <v>1.475150058617</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -3372,6 +5748,20 @@
       <c r="G79" s="4" t="n">
         <v>118.468269230769</v>
       </c>
+      <c r="I79" s="1" t="n">
+        <v>1.3628600816975</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <f aca="false">ABS(D79-I79)</f>
+        <v>0.01670623554367</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>116.58189898831</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <f aca="false">ABS(G79-K79)</f>
+        <v>1.88637024245899</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -3395,6 +5785,20 @@
       <c r="G80" s="4" t="n">
         <v>114.429807692308</v>
       </c>
+      <c r="I80" s="1" t="n">
+        <v>1.227917755861</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <f aca="false">ABS(D80-I80)</f>
+        <v>0.11823609029283</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>113.55870383145</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <f aca="false">ABS(G80-K80)</f>
+        <v>0.871103860858</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -3418,6 +5822,20 @@
       <c r="G81" s="4" t="n">
         <v>111.7375</v>
       </c>
+      <c r="I81" s="1" t="n">
+        <v>1.1063366143181</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <f aca="false">ABS(D81-I81)</f>
+        <v>0.23981723183573</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>110.61376941311</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <f aca="false">ABS(G81-K81)</f>
+        <v>1.12373058688999</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -3440,6 +5858,20 @@
       </c>
       <c r="G82" s="4" t="n">
         <v>109.045192307692</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>0.99679371319693</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <f aca="false">ABS(D82-I82)</f>
+        <v>0.3493601329569</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>107.74507681573</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <f aca="false">ABS(G82-K82)</f>
+        <v>1.300115491962</v>
       </c>
     </row>
   </sheetData>

--- a/punch04.xlsx
+++ b/punch04.xlsx
@@ -260,7 +260,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -274,22 +274,22 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80%削減 (SIR)</c:v>
+                  <c:v>65%削減（感染者数）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="b2b2b2"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:srgbClr val="b2b2b2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -298,6 +298,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -309,6 +310,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -571,252 +573,252 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$82</c:f>
+              <c:f>Sheet1!$G$2:$G$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3670446774689</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8688109213178</c:v>
+                  <c:v>2.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5547472825669</c:v>
+                  <c:v>2.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4924518631108</c:v>
+                  <c:v>4.03846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7743337601488</c:v>
+                  <c:v>5.38461538461539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5267193355793</c:v>
+                  <c:v>6.73076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9223004752931</c:v>
+                  <c:v>9.42307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.197151132901</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.673988239386</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.793967662586</c:v>
+                  <c:v>22.8846153846154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.160145572648</c:v>
+                  <c:v>30.9615384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.596882473451</c:v>
+                  <c:v>43.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.23103322436</c:v>
+                  <c:v>59.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.602903885115</c:v>
+                  <c:v>79.4230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108.81787198734</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148.75354105884</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.34271119224</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>277.95980345072</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.94835530352</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.34070369238</c:v>
+                  <c:v>519.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>467.92651079724</c:v>
+                  <c:v>506.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>421.60156816612</c:v>
+                  <c:v>492.699038461539</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>379.86224681889</c:v>
+                  <c:v>480.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>342.25473171702</c:v>
+                  <c:v>467.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>308.37009934788</c:v>
+                  <c:v>456.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>277.8398808409</c:v>
+                  <c:v>444.2375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>250.33206289035</c:v>
+                  <c:v>432.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>225.5474834195</c:v>
+                  <c:v>421.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>203.21658313131</c:v>
+                  <c:v>410.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>183.09647789487</c:v>
+                  <c:v>399.814423076923</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>164.96832035218</c:v>
+                  <c:v>390.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>148.63492223139</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>133.91861165315</c:v>
+                  <c:v>370.199038461538</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>120.65930224346</c:v>
+                  <c:v>360.775961538461</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>108.71275314725</c:v>
+                  <c:v>351.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>97.949001094249</c:v>
+                  <c:v>341.929807692308</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.250947525045</c:v>
+                  <c:v>333.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>79.513085459459</c:v>
+                  <c:v>324.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>71.640352299379</c:v>
+                  <c:v>316.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.547096120044</c:v>
+                  <c:v>308.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.156144231668</c:v>
+                  <c:v>300.199038461538</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.397963900532</c:v>
+                  <c:v>293.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47.209906116889</c:v>
+                  <c:v>285.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.535524196974</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.323959817668</c:v>
+                  <c:v>270.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34.529389813714</c:v>
+                  <c:v>263.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.110527726505</c:v>
+                  <c:v>257.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.030174687671</c:v>
+                  <c:v>250.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.254814756174</c:v>
+                  <c:v>243.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22.754250310284</c:v>
+                  <c:v>238.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.501273530771</c:v>
+                  <c:v>231.545192307692</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.471370403686</c:v>
+                  <c:v>226.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.642454024384</c:v>
+                  <c:v>219.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14.994624302785</c:v>
+                  <c:v>214.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13.50995145683</c:v>
+                  <c:v>208.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.172280939559</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.967057678271</c:v>
+                  <c:v>197.891346153846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.881167714144</c:v>
+                  <c:v>193.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.902795519845</c:v>
+                  <c:v>188.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.0212954431747</c:v>
+                  <c:v>183.083653846154</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.2270758783414</c:v>
+                  <c:v>179.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.511494904894</c:v>
+                  <c:v>173.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.8667662590455</c:v>
+                  <c:v>169.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.285874614489</c:v>
+                  <c:v>165.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.7624992510631</c:v>
+                  <c:v>161.545192307692</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.290945280853</c:v>
+                  <c:v>157.506730769231</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.8660816835182</c:v>
+                  <c:v>153.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.4832854767058</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.1383914141422</c:v>
+                  <c:v>145.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8276466641331</c:v>
+                  <c:v>141.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.5476699753732</c:v>
+                  <c:v>137.314423076923</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.2954148857919</c:v>
+                  <c:v>134.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.0681365741384</c:v>
+                  <c:v>130.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.8633619936445</c:v>
+                  <c:v>127.891346153846</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.6788629628082</c:v>
+                  <c:v>123.852884615385</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.5126319205147</c:v>
+                  <c:v>121.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3628600816975</c:v>
+                  <c:v>118.468269230769</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.227917755861</c:v>
+                  <c:v>114.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1063366143181</c:v>
+                  <c:v>111.7375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.99679371319693</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,22 +830,22 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65%削減 (SIR)</c:v>
+                  <c:v>80%削減（感染者数）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="0000ff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="0000ff"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -852,6 +854,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -863,6 +866,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1125,270 +1129,270 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$82</c:f>
+              <c:f>Sheet1!$D$2:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3670446774689</c:v>
+                  <c:v>1.34615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8688109213178</c:v>
+                  <c:v>2.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5547472825669</c:v>
+                  <c:v>2.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4924518631108</c:v>
+                  <c:v>4.03846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7743337601488</c:v>
+                  <c:v>5.38461538461539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5267193355793</c:v>
+                  <c:v>6.73076923076923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.9223004752931</c:v>
+                  <c:v>9.42307692307693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.197151132901</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.673988239386</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.793967662586</c:v>
+                  <c:v>22.8846153846154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.160145572648</c:v>
+                  <c:v>30.9615384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.596882473451</c:v>
+                  <c:v>43.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.23103322436</c:v>
+                  <c:v>59.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.602903885115</c:v>
+                  <c:v>79.4230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108.81787198734</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148.75354105884</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.34271119224</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>277.95980345072</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.94835530352</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.34070369238</c:v>
+                  <c:v>519.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>505.95672432992</c:v>
+                  <c:v>467.122115384615</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>492.91495053624</c:v>
+                  <c:v>421.352884615385</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>480.20677147749</c:v>
+                  <c:v>379.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>467.8237858775</c:v>
+                  <c:v>341.929807692308</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>455.75779728558</c:v>
+                  <c:v>308.275961538461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>444.00080943186</c:v>
+                  <c:v>278.660576923077</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>432.54502166944</c:v>
+                  <c:v>250.391346153846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>421.38282450288</c:v>
+                  <c:v>226.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>410.50679520238</c:v>
+                  <c:v>203.275961538462</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>399.90969350273</c:v>
+                  <c:v>183.083653846154</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>389.5844573866</c:v>
+                  <c:v>165.583653846154</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>379.52419895099</c:v>
+                  <c:v>149.429807692308</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>369.72220035627</c:v>
+                  <c:v>134.622115384615</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>360.17190985669</c:v>
+                  <c:v>121.160576923077</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>350.86693791154</c:v>
+                  <c:v>109.045192307692</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>341.80105337592</c:v>
+                  <c:v>98.2692307692308</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>332.96817977017</c:v>
+                  <c:v>88.8461538461538</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>324.36239162685</c:v>
+                  <c:v>79.4230769230769</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>315.97791091434</c:v>
+                  <c:v>72.6923076923077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>307.80910353578</c:v>
+                  <c:v>64.6153846153846</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>299.85047590253</c:v>
+                  <c:v>59.2307692307692</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>292.09667158081</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>284.54246801052</c:v>
+                  <c:v>47.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>277.18277329508</c:v>
+                  <c:v>43.0769230769231</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>270.01262306119</c:v>
+                  <c:v>39.0384615384615</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263.02717738728</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>256.22171779968</c:v>
+                  <c:v>30.9615384615384</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>249.59164433511</c:v>
+                  <c:v>28.2692307692307</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>243.13247266861</c:v>
+                  <c:v>25.5769230769231</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>236.83983130555</c:v>
+                  <c:v>22.8846153846154</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>230.70945883676</c:v>
+                  <c:v>21.5384615384615</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>224.73720125543</c:v>
+                  <c:v>18.8461538461538</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>218.91900933488</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>213.2509360659</c:v>
+                  <c:v>16.1538461538461</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>207.72913415257</c:v>
+                  <c:v>13.4615384615384</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>202.34985356554</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>197.10943915151</c:v>
+                  <c:v>12.1153846153846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>192.00432829798</c:v>
+                  <c:v>10.7692307692308</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>187.03104865207</c:v>
+                  <c:v>9.42307692307691</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>182.18621589232</c:v>
+                  <c:v>8.07692307692307</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>177.46653155257</c:v>
+                  <c:v>8.07692307692307</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>172.86878089664</c:v>
+                  <c:v>6.73076923076922</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>168.38983084295</c:v>
+                  <c:v>6.73076923076922</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>164.02662793798</c:v>
+                  <c:v>5.38461538461537</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>159.77619637757</c:v>
+                  <c:v>5.38461538461537</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>155.635636075</c:v>
+                  <c:v>5.38461538461537</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>151.60212077502</c:v>
+                  <c:v>4.03846153846153</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>147.6728962127</c:v>
+                  <c:v>4.03846153846153</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>143.84527831619</c:v>
+                  <c:v>4.03846153846153</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>140.11665145247</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>136.48446671521</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>132.94624025365</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>129.49955164182</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>126.14204228707</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>122.87141387707</c:v>
+                  <c:v>2.69230769230768</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>119.68542686446</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>116.58189898831</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>113.55870383145</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>110.61376941311</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>107.74507681573</c:v>
+                  <c:v>1.34615384615383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25423945"/>
-        <c:axId val="77744160"/>
+        <c:axId val="78086996"/>
+        <c:axId val="11661915"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25423945"/>
+        <c:axId val="78086996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1411,12 +1415,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77744160"/>
+        <c:crossAx val="11661915"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77744160"/>
+        <c:axId val="11661915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1435,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1454,7 +1458,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25423945"/>
+        <c:crossAx val="78086996"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1503,7 +1507,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1517,22 +1521,22 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65%削減（感染者数）</c:v>
+                  <c:v>80%削減 (SIR)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="b2b2b2"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="b2b2b2"/>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1541,7 +1545,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1816,252 +1820,252 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$82</c:f>
+              <c:f>Sheet1!$I$2:$I$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>1.3670952524864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>1.8689492004127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>2.555030838104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.03846153846154</c:v>
+                  <c:v>3.4929687160795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38461538461539</c:v>
+                  <c:v>4.7752169760975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.73076923076923</c:v>
+                  <c:v>6.5281682330415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.42307692307693</c:v>
+                  <c:v>8.9246113342354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.1153846153846</c:v>
+                  <c:v>12.200761519296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.5</c:v>
+                  <c:v>16.679540803191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.8846153846154</c:v>
+                  <c:v>22.802401730655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.9615384615385</c:v>
+                  <c:v>31.172828341173</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.0769230769231</c:v>
+                  <c:v>42.615796521189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.2307692307692</c:v>
+                  <c:v>58.259043999367</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.4230769230769</c:v>
+                  <c:v>79.644140576615</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.045192307692</c:v>
+                  <c:v>108.87826891483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.429807692308</c:v>
+                  <c:v>148.84160597123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.275961538462</c:v>
+                  <c:v>203.47061386047</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278.660576923077</c:v>
+                  <c:v>278.14491568292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.622115384615</c:v>
+                  <c:v>380.21542616425</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.622115384615</c:v>
+                  <c:v>519.72492692149</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>506.160576923077</c:v>
+                  <c:v>468.26690932269</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>492.699038461539</c:v>
+                  <c:v>421.90305238095</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>480.583653846154</c:v>
+                  <c:v>380.12918463068</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>467.122115384615</c:v>
+                  <c:v>342.49100778221</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>456.352884615385</c:v>
+                  <c:v>308.57916790491</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>444.2375</c:v>
+                  <c:v>278.02481282692</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>432.122115384615</c:v>
+                  <c:v>250.49558795403</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>421.352884615385</c:v>
+                  <c:v>225.69202737729</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>410.583653846154</c:v>
+                  <c:v>203.34430135655</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>399.814423076923</c:v>
+                  <c:v>183.2092850771</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>390.391346153846</c:v>
+                  <c:v>165.06791701742</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>379.622115384615</c:v>
+                  <c:v>148.72281837248</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>370.199038461538</c:v>
+                  <c:v>133.99614778205</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>360.775961538461</c:v>
+                  <c:v>120.72766814393</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>351.352884615385</c:v>
+                  <c:v>108.7730045767</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>341.929807692308</c:v>
+                  <c:v>98.002074656771</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>333.852884615385</c:v>
+                  <c:v>88.297673913858</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>324.429807692308</c:v>
+                  <c:v>79.554201245705</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>316.352884615385</c:v>
+                  <c:v>71.676510425215</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>308.275961538462</c:v>
+                  <c:v>64.578875236917</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>300.199038461538</c:v>
+                  <c:v>58.184057009536</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>293.468269230769</c:v>
+                  <c:v>52.42246442019</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>285.391346153846</c:v>
+                  <c:v>47.231396445462</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>278.660576923077</c:v>
+                  <c:v>42.55436023582</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>270.583653846154</c:v>
+                  <c:v>38.340456502289</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263.852884615385</c:v>
+                  <c:v>34.543825736622</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>257.122115384615</c:v>
+                  <c:v>31.123149246335</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>250.391346153846</c:v>
+                  <c:v>28.041199580925</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>243.660576923077</c:v>
+                  <c:v>25.264435461885</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>238.275961538462</c:v>
+                  <c:v>22.762636812387</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>231.545192307692</c:v>
+                  <c:v>20.508575918123</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>226.160576923077</c:v>
+                  <c:v>18.477721143295</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>219.429807692308</c:v>
+                  <c:v>16.647969979534</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>214.045192307692</c:v>
+                  <c:v>14.999408524302</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>208.660576923077</c:v>
+                  <c:v>13.514094772603</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>203.275961538462</c:v>
+                  <c:v>12.175863364717</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>197.891346153846</c:v>
+                  <c:v>10.970149665946</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>193.852884615385</c:v>
+                  <c:v>9.8838312645517</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>188.468269230769</c:v>
+                  <c:v>8.9050851634915</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>183.083653846154</c:v>
+                  <c:v>8.0232591122285</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>179.045192307692</c:v>
+                  <c:v>7.2287556786843</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>173.660576923077</c:v>
+                  <c:v>6.5129277999747</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>169.622115384615</c:v>
+                  <c:v>5.8679846754314</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>165.583653846154</c:v>
+                  <c:v>5.2869069779175</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>161.545192307692</c:v>
+                  <c:v>4.763370460819</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>157.506730769231</c:v>
+                  <c:v>4.2916771294289</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>153.468269230769</c:v>
+                  <c:v>3.8666932277437</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>149.429807692308</c:v>
+                  <c:v>3.4837933658399</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>145.391346153846</c:v>
+                  <c:v>3.1388101798156</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>141.352884615385</c:v>
+                  <c:v>2.8279889764751</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>137.314423076923</c:v>
+                  <c:v>2.5479468691804</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>134.622115384615</c:v>
+                  <c:v>2.2956359601578</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>130.583653846154</c:v>
+                  <c:v>2.0683101685832</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>127.891346153846</c:v>
+                  <c:v>1.8634953434414</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>123.852884615385</c:v>
+                  <c:v>1.6789623358993</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>121.160576923077</c:v>
+                  <c:v>1.5127027381389</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>118.468269230769</c:v>
+                  <c:v>1.3629070246143</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>114.429807692308</c:v>
+                  <c:v>1.2279448578396</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111.7375</c:v>
+                  <c:v>1.1063473443724</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>109.045192307692</c:v>
+                  <c:v>0.99679104787834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,22 +2077,22 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80%削減（感染者数）</c:v>
+                  <c:v>65%削減 (SIR)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0000ff"/>
+              <a:srgbClr val="ff420e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="0000ff"/>
+                <a:srgbClr val="ff420e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2097,7 +2101,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2372,263 +2376,263 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$82</c:f>
+              <c:f>Sheet1!$K$2:$K$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
                 <c:pt idx="0">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34615384615385</c:v>
+                  <c:v>1.3670952524864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>1.8689492004127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6923076923077</c:v>
+                  <c:v>2.555030838104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.03846153846154</c:v>
+                  <c:v>3.4929687160795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38461538461539</c:v>
+                  <c:v>4.7752169760975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.73076923076923</c:v>
+                  <c:v>6.5281682330415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.42307692307693</c:v>
+                  <c:v>8.9246113342354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.1153846153846</c:v>
+                  <c:v>12.200761519296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.5</c:v>
+                  <c:v>16.679540803191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.8846153846154</c:v>
+                  <c:v>22.802401730655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.9615384615385</c:v>
+                  <c:v>31.172828341173</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.0769230769231</c:v>
+                  <c:v>42.615796521189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.2307692307692</c:v>
+                  <c:v>58.259043999367</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79.4230769230769</c:v>
+                  <c:v>79.644140576615</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.045192307692</c:v>
+                  <c:v>108.87826891483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149.429807692308</c:v>
+                  <c:v>148.84160597123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.275961538462</c:v>
+                  <c:v>203.47061386047</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>278.660576923077</c:v>
+                  <c:v>278.14491568292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.622115384615</c:v>
+                  <c:v>380.21542616425</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519.622115384615</c:v>
+                  <c:v>519.72492692149</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>467.122115384615</c:v>
+                  <c:v>506.32946085302</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>421.352884615385</c:v>
+                  <c:v>493.27653259168</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>379.622115384615</c:v>
+                  <c:v>480.55752207703</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>341.929807692308</c:v>
+                  <c:v>468.16401904633</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>308.275961538461</c:v>
+                  <c:v>456.08781829701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>278.660576923077</c:v>
+                  <c:v>444.32091503655</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>250.391346153846</c:v>
+                  <c:v>432.85550031939</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>226.160576923077</c:v>
+                  <c:v>421.6839565702</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>203.275961538462</c:v>
+                  <c:v>410.79885319288</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>183.083653846154</c:v>
+                  <c:v>400.19294226456</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>165.583653846154</c:v>
+                  <c:v>389.85915431387</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>149.429807692308</c:v>
+                  <c:v>379.79059418254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>134.622115384615</c:v>
+                  <c:v>369.98053696967</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>121.160576923077</c:v>
+                  <c:v>360.42242405753</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>109.045192307692</c:v>
+                  <c:v>351.10985921814</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>98.2692307692308</c:v>
+                  <c:v>342.0366047995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.8461538461538</c:v>
+                  <c:v>333.19657799059</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>79.4230769230769</c:v>
+                  <c:v>324.58384716403</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72.6923076923077</c:v>
+                  <c:v>316.19262829535</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>64.6153846153846</c:v>
+                  <c:v>308.01728145789</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>59.2307692307692</c:v>
+                  <c:v>300.05230739204</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.5</c:v>
+                  <c:v>292.29234414794</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47.1153846153846</c:v>
+                  <c:v>284.73216380039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.0769230769231</c:v>
+                  <c:v>277.36666923484</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>39.0384615384615</c:v>
+                  <c:v>270.19089100337</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35</c:v>
+                  <c:v>263.19998424954</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.9615384615384</c:v>
+                  <c:v>256.38922570088</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>28.2692307692307</c:v>
+                  <c:v>249.75401072795</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>25.5769230769231</c:v>
+                  <c:v>243.28985046876</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22.8846153846154</c:v>
+                  <c:v>236.99236901752</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21.5384615384615</c:v>
+                  <c:v>230.85730067637</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.8461538461538</c:v>
+                  <c:v>224.88048726921</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.5</c:v>
+                  <c:v>219.05787551623</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.1538461538461</c:v>
+                  <c:v>213.38551446822</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>13.4615384615384</c:v>
+                  <c:v>207.85955299947</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12.1153846153846</c:v>
+                  <c:v>202.47623735802</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.1153846153846</c:v>
+                  <c:v>197.23190877241</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.7692307692308</c:v>
+                  <c:v>192.12300111357</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9.42307692307691</c:v>
+                  <c:v>187.14603861095</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.07692307692307</c:v>
+                  <c:v>182.29763362171</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.07692307692307</c:v>
+                  <c:v>177.57448445195</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.73076923076922</c:v>
+                  <c:v>172.97337322894</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.73076923076922</c:v>
+                  <c:v>168.49116382324</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.38461538461537</c:v>
+                  <c:v>164.12479981978</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.38461538461537</c:v>
+                  <c:v>159.87130253682</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.38461538461537</c:v>
+                  <c:v>155.72776909176</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.03846153846153</c:v>
+                  <c:v>151.69137051293</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.03846153846153</c:v>
+                  <c:v>147.7593498963</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.03846153846153</c:v>
+                  <c:v>143.9290206061</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.69230769230768</c:v>
+                  <c:v>140.19776451855</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.69230769230768</c:v>
+                  <c:v>136.56303030767</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.69230769230768</c:v>
+                  <c:v>133.02233177226</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.69230769230768</c:v>
+                  <c:v>129.57324620318</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.69230769230768</c:v>
+                  <c:v>126.21341279001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.69230769230768</c:v>
+                  <c:v>122.94053106631</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.34615384615383</c:v>
+                  <c:v>119.75235939244</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.34615384615383</c:v>
+                  <c:v>116.64671347534</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.34615384615383</c:v>
+                  <c:v>113.6214649242</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.34615384615383</c:v>
+                  <c:v>110.67453984145</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.34615384615383</c:v>
+                  <c:v>107.80391744803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96181807"/>
-        <c:axId val="27465827"/>
+        <c:axId val="59302400"/>
+        <c:axId val="52444756"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96181807"/>
+        <c:axId val="59302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -2658,12 +2662,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27465827"/>
+        <c:crossAx val="52444756"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27465827"/>
+        <c:axId val="52444756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2682,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2701,7 +2705,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96181807"/>
+        <c:crossAx val="59302400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2757,11 +2761,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>806400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
@@ -2771,8 +2775,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="806400" y="1138320"/>
-        <a:ext cx="5763600" cy="3239280"/>
+        <a:off x="806400" y="1138680"/>
+        <a:ext cx="5763600" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2784,16 +2788,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>707400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>969120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>376200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181080</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2801,8 +2805,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5632920" y="1141200"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3300840" y="2831760"/>
+        <a:ext cx="5760000" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2822,8 +2826,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2837,7 +2841,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="12" style="1" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.87"/>
   </cols>
   <sheetData>
@@ -2936,18 +2942,18 @@
         <v>1.34615384615385</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1.3670446774689</v>
+        <v>1.3670952524864</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">ABS(D3-I3)</f>
-        <v>0.02089083131505</v>
+        <v>0.0209414063325499</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>1.3670446774689</v>
+        <v>1.3670952524864</v>
       </c>
       <c r="L3" s="1" t="n">
         <f aca="false">ABS(G3-K3)</f>
-        <v>0.02089083131505</v>
+        <v>0.0209414063325499</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,18 +2979,18 @@
         <v>2.6923076923077</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>1.8688109213178</v>
+        <v>1.8689492004127</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">ABS(D4-I4)</f>
-        <v>0.8234967709899</v>
+        <v>0.823358491895</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1.8688109213178</v>
+        <v>1.8689492004127</v>
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">ABS(G4-K4)</f>
-        <v>0.8234967709899</v>
+        <v>0.823358491895</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,18 +3016,18 @@
         <v>2.6923076923077</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2.5547472825669</v>
+        <v>2.555030838104</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">ABS(D5-I5)</f>
-        <v>0.1375604097408</v>
+        <v>0.1372768542037</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>2.5547472825669</v>
+        <v>2.555030838104</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">ABS(G5-K5)</f>
-        <v>0.1375604097408</v>
+        <v>0.1372768542037</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,18 +3053,18 @@
         <v>4.03846153846154</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>3.4924518631108</v>
+        <v>3.4929687160795</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">ABS(D6-I6)</f>
-        <v>0.54600967535074</v>
+        <v>0.54549282238204</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>3.4924518631108</v>
+        <v>3.4929687160795</v>
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">ABS(G6-K6)</f>
-        <v>0.54600967535074</v>
+        <v>0.54549282238204</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,18 +3090,18 @@
         <v>5.38461538461539</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>4.7743337601488</v>
+        <v>4.7752169760975</v>
       </c>
       <c r="J7" s="1" t="n">
         <f aca="false">ABS(D7-I7)</f>
-        <v>0.61028162446659</v>
+        <v>0.60939840851789</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>4.7743337601488</v>
+        <v>4.7752169760975</v>
       </c>
       <c r="L7" s="1" t="n">
         <f aca="false">ABS(G7-K7)</f>
-        <v>0.61028162446659</v>
+        <v>0.60939840851789</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,18 +3127,18 @@
         <v>6.73076923076923</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>6.5267193355793</v>
+        <v>6.5281682330415</v>
       </c>
       <c r="J8" s="1" t="n">
         <f aca="false">ABS(D8-I8)</f>
-        <v>0.20404989518993</v>
+        <v>0.20260099772773</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>6.5267193355793</v>
+        <v>6.5281682330415</v>
       </c>
       <c r="L8" s="1" t="n">
         <f aca="false">ABS(G8-K8)</f>
-        <v>0.20404989518993</v>
+        <v>0.20260099772773</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,18 +3164,18 @@
         <v>9.42307692307693</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>8.9223004752931</v>
+        <v>8.9246113342354</v>
       </c>
       <c r="J9" s="1" t="n">
         <f aca="false">ABS(D9-I9)</f>
-        <v>0.50077644778383</v>
+        <v>0.49846558884153</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>8.9223004752931</v>
+        <v>8.9246113342354</v>
       </c>
       <c r="L9" s="1" t="n">
         <f aca="false">ABS(G9-K9)</f>
-        <v>0.50077644778383</v>
+        <v>0.49846558884153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,18 +3201,18 @@
         <v>12.1153846153846</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>12.197151132901</v>
+        <v>12.200761519296</v>
       </c>
       <c r="J10" s="1" t="n">
         <f aca="false">ABS(D10-I10)</f>
-        <v>0.0817665175163995</v>
+        <v>0.0853769039113992</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>12.197151132901</v>
+        <v>12.200761519296</v>
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">ABS(G10-K10)</f>
-        <v>0.0817665175163995</v>
+        <v>0.0853769039113992</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,18 +3238,18 @@
         <v>17.5</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>16.673988239386</v>
+        <v>16.679540803191</v>
       </c>
       <c r="J11" s="1" t="n">
         <f aca="false">ABS(D11-I11)</f>
-        <v>0.826011760614001</v>
+        <v>0.820459196809001</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>16.673988239386</v>
+        <v>16.679540803191</v>
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">ABS(G11-K11)</f>
-        <v>0.826011760614001</v>
+        <v>0.820459196809001</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,18 +3275,18 @@
         <v>22.8846153846154</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>22.793967662586</v>
+        <v>22.802401730655</v>
       </c>
       <c r="J12" s="1" t="n">
         <f aca="false">ABS(D12-I12)</f>
-        <v>0.0906477220294022</v>
+        <v>0.0822136539604017</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>22.793967662586</v>
+        <v>22.802401730655</v>
       </c>
       <c r="L12" s="1" t="n">
         <f aca="false">ABS(G12-K12)</f>
-        <v>0.0906477220294022</v>
+        <v>0.0822136539604017</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,18 +3312,18 @@
         <v>30.9615384615385</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>31.160145572648</v>
+        <v>31.172828341173</v>
       </c>
       <c r="J13" s="1" t="n">
         <f aca="false">ABS(D13-I13)</f>
-        <v>0.198607111109499</v>
+        <v>0.211289879634499</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>31.160145572648</v>
+        <v>31.172828341173</v>
       </c>
       <c r="L13" s="1" t="n">
         <f aca="false">ABS(G13-K13)</f>
-        <v>0.198607111109499</v>
+        <v>0.211289879634499</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,18 +3349,18 @@
         <v>43.0769230769231</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>42.596882473451</v>
+        <v>42.615796521189</v>
       </c>
       <c r="J14" s="1" t="n">
         <f aca="false">ABS(D14-I14)</f>
-        <v>0.480040603472105</v>
+        <v>0.461126555734104</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>42.596882473451</v>
+        <v>42.615796521189</v>
       </c>
       <c r="L14" s="1" t="n">
         <f aca="false">ABS(G14-K14)</f>
-        <v>0.480040603472105</v>
+        <v>0.461126555734104</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,18 +3386,18 @@
         <v>59.2307692307692</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>58.23103322436</v>
+        <v>58.259043999367</v>
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">ABS(D15-I15)</f>
-        <v>0.999736006409201</v>
+        <v>0.971725231402196</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>58.23103322436</v>
+        <v>58.259043999367</v>
       </c>
       <c r="L15" s="1" t="n">
         <f aca="false">ABS(G15-K15)</f>
-        <v>0.999736006409201</v>
+        <v>0.971725231402196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,18 +3423,18 @@
         <v>79.4230769230769</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>79.602903885115</v>
+        <v>79.644140576615</v>
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">ABS(D16-I16)</f>
-        <v>0.179826962038092</v>
+        <v>0.221063653538096</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>79.602903885115</v>
+        <v>79.644140576615</v>
       </c>
       <c r="L16" s="1" t="n">
         <f aca="false">ABS(G16-K16)</f>
-        <v>0.179826962038092</v>
+        <v>0.221063653538096</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,18 +3460,18 @@
         <v>109.045192307692</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>108.81787198734</v>
+        <v>108.87826891483</v>
       </c>
       <c r="J17" s="1" t="n">
         <f aca="false">ABS(D17-I17)</f>
-        <v>0.227320320352007</v>
+        <v>0.166923392862003</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>108.81787198734</v>
+        <v>108.87826891483</v>
       </c>
       <c r="L17" s="1" t="n">
         <f aca="false">ABS(G17-K17)</f>
-        <v>0.227320320352007</v>
+        <v>0.166923392862003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,18 +3497,18 @@
         <v>149.429807692308</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>148.75354105884</v>
+        <v>148.84160597123</v>
       </c>
       <c r="J18" s="1" t="n">
         <f aca="false">ABS(D18-I18)</f>
-        <v>0.676266633468003</v>
+        <v>0.588201721078008</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>148.75354105884</v>
+        <v>148.84160597123</v>
       </c>
       <c r="L18" s="1" t="n">
         <f aca="false">ABS(G18-K18)</f>
-        <v>0.676266633468003</v>
+        <v>0.588201721078008</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,18 +3534,18 @@
         <v>203.275961538462</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>203.34271119224</v>
+        <v>203.47061386047</v>
       </c>
       <c r="J19" s="1" t="n">
         <f aca="false">ABS(D19-I19)</f>
-        <v>0.0667496537779755</v>
+        <v>0.194652322007983</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>203.34271119224</v>
+        <v>203.47061386047</v>
       </c>
       <c r="L19" s="1" t="n">
         <f aca="false">ABS(G19-K19)</f>
-        <v>0.0667496537779755</v>
+        <v>0.194652322007983</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,18 +3571,18 @@
         <v>278.660576923077</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>277.95980345072</v>
+        <v>278.14491568292</v>
       </c>
       <c r="J20" s="1" t="n">
         <f aca="false">ABS(D20-I20)</f>
-        <v>0.700773472356957</v>
+        <v>0.515661240156987</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>277.95980345072</v>
+        <v>278.14491568292</v>
       </c>
       <c r="L20" s="1" t="n">
         <f aca="false">ABS(G20-K20)</f>
-        <v>0.700773472356957</v>
+        <v>0.515661240156987</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,18 +3608,18 @@
         <v>379.622115384615</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>379.94835530352</v>
+        <v>380.21542616425</v>
       </c>
       <c r="J21" s="1" t="n">
         <f aca="false">ABS(D21-I21)</f>
-        <v>0.326239918905003</v>
+        <v>0.593310779635033</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>379.94835530352</v>
+        <v>380.21542616425</v>
       </c>
       <c r="L21" s="1" t="n">
         <f aca="false">ABS(G21-K21)</f>
-        <v>0.326239918905003</v>
+        <v>0.593310779635033</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3639,18 +3645,18 @@
         <v>519.622115384615</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>519.34070369238</v>
+        <v>519.72492692149</v>
       </c>
       <c r="J22" s="5" t="n">
         <f aca="false">ABS(D22-I22)</f>
-        <v>0.281411692234997</v>
+        <v>0.102811536875038</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>519.34070369238</v>
+        <v>519.72492692149</v>
       </c>
       <c r="L22" s="5" t="n">
         <f aca="false">ABS(G22-K22)</f>
-        <v>0.281411692234997</v>
+        <v>0.102811536875038</v>
       </c>
       <c r="AMJ22" s="7"/>
     </row>
@@ -3677,18 +3683,18 @@
         <v>506.160576923077</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>467.92651079724</v>
+        <v>468.26690932269</v>
       </c>
       <c r="J23" s="1" t="n">
         <f aca="false">ABS(D23-I23)</f>
-        <v>0.804395412625013</v>
+        <v>1.14479393807505</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>505.95672432992</v>
+        <v>506.32946085302</v>
       </c>
       <c r="L23" s="1" t="n">
         <f aca="false">ABS(G23-K23)</f>
-        <v>0.203852593156967</v>
+        <v>0.168883929943036</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,18 +3720,18 @@
         <v>492.699038461539</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>421.60156816612</v>
+        <v>421.90305238095</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">ABS(D24-I24)</f>
-        <v>0.248683550734995</v>
+        <v>0.550167765564993</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>492.91495053624</v>
+        <v>493.27653259168</v>
       </c>
       <c r="L24" s="1" t="n">
         <f aca="false">ABS(G24-K24)</f>
-        <v>0.215912074701009</v>
+        <v>0.57749413014102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,18 +3757,18 @@
         <v>480.583653846154</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>379.86224681889</v>
+        <v>380.12918463068</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">ABS(D25-I25)</f>
-        <v>0.240131434275042</v>
+        <v>0.507069246065043</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>480.20677147749</v>
+        <v>480.55752207703</v>
       </c>
       <c r="L25" s="1" t="n">
         <f aca="false">ABS(G25-K25)</f>
-        <v>0.376882368663985</v>
+        <v>0.0261317691239924</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,18 +3794,18 @@
         <v>467.122115384615</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>342.25473171702</v>
+        <v>342.49100778221</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">ABS(D26-I26)</f>
-        <v>0.324924024712004</v>
+        <v>0.561200089902002</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>467.8237858775</v>
+        <v>468.16401904633</v>
       </c>
       <c r="L26" s="1" t="n">
         <f aca="false">ABS(G26-K26)</f>
-        <v>0.701670492885</v>
+        <v>1.04190366171503</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,18 +3831,18 @@
         <v>456.352884615385</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>308.37009934788</v>
+        <v>308.57916790491</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">ABS(D27-I27)</f>
-        <v>0.09413780941901</v>
+        <v>0.30320636644899</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>455.75779728558</v>
+        <v>456.08781829701</v>
       </c>
       <c r="L27" s="1" t="n">
         <f aca="false">ABS(G27-K27)</f>
-        <v>0.595087329804983</v>
+        <v>0.265066318374977</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,18 +3868,18 @@
         <v>444.2375</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>277.8398808409</v>
+        <v>278.02481282692</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">ABS(D28-I28)</f>
-        <v>0.820696082176994</v>
+        <v>0.635764096156947</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>444.00080943186</v>
+        <v>444.32091503655</v>
       </c>
       <c r="L28" s="1" t="n">
         <f aca="false">ABS(G28-K28)</f>
-        <v>0.236690568140034</v>
+        <v>0.0834150365499795</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,18 +3905,18 @@
         <v>432.122115384615</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>250.33206289035</v>
+        <v>250.49558795403</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">ABS(D29-I29)</f>
-        <v>0.0592832634960132</v>
+        <v>0.104241800183985</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>432.54502166944</v>
+        <v>432.85550031939</v>
       </c>
       <c r="L29" s="1" t="n">
         <f aca="false">ABS(G29-K29)</f>
-        <v>0.422906284825046</v>
+        <v>0.733384934775017</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,18 +3942,18 @@
         <v>421.352884615385</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>225.5474834195</v>
+        <v>225.69202737729</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">ABS(D30-I30)</f>
-        <v>0.613093503577005</v>
+        <v>0.468549545786999</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>421.38282450288</v>
+        <v>421.6839565702</v>
       </c>
       <c r="L30" s="1" t="n">
         <f aca="false">ABS(G30-K30)</f>
-        <v>0.0299398874950043</v>
+        <v>0.331071954815002</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,18 +3979,18 @@
         <v>410.583653846154</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>203.21658313131</v>
+        <v>203.34430135655</v>
       </c>
       <c r="J31" s="1" t="n">
         <f aca="false">ABS(D31-I31)</f>
-        <v>0.0593784071520247</v>
+        <v>0.0683398180879919</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>410.50679520238</v>
+        <v>410.79885319288</v>
       </c>
       <c r="L31" s="1" t="n">
         <f aca="false">ABS(G31-K31)</f>
-        <v>0.0768586437740169</v>
+        <v>0.215199346726024</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,18 +4016,18 @@
         <v>399.814423076923</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>183.09647789487</v>
+        <v>183.2092850771</v>
       </c>
       <c r="J32" s="1" t="n">
         <f aca="false">ABS(D32-I32)</f>
-        <v>0.0128240487159985</v>
+        <v>0.125631230945999</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>399.90969350273</v>
+        <v>400.19294226456</v>
       </c>
       <c r="L32" s="1" t="n">
         <f aca="false">ABS(G32-K32)</f>
-        <v>0.0952704258070298</v>
+        <v>0.378519187636982</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,18 +4053,18 @@
         <v>390.391346153846</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>164.96832035218</v>
+        <v>165.06791701742</v>
       </c>
       <c r="J33" s="1" t="n">
         <f aca="false">ABS(D33-I33)</f>
-        <v>0.615333493973992</v>
+        <v>0.515736828733992</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>389.5844573866</v>
+        <v>389.85915431387</v>
       </c>
       <c r="L33" s="1" t="n">
         <f aca="false">ABS(G33-K33)</f>
-        <v>0.806888767245994</v>
+        <v>0.532191839975951</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,18 +4090,18 @@
         <v>379.622115384615</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>148.63492223139</v>
+        <v>148.72281837248</v>
       </c>
       <c r="J34" s="1" t="n">
         <f aca="false">ABS(D34-I34)</f>
-        <v>0.79488546091801</v>
+        <v>0.706989319828011</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>379.52419895099</v>
+        <v>379.79059418254</v>
       </c>
       <c r="L34" s="1" t="n">
         <f aca="false">ABS(G34-K34)</f>
-        <v>0.0979164336249596</v>
+        <v>0.168478797925047</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,18 +4127,18 @@
         <v>370.199038461538</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>133.91861165315</v>
+        <v>133.99614778205</v>
       </c>
       <c r="J35" s="1" t="n">
         <f aca="false">ABS(D35-I35)</f>
-        <v>0.703503731464991</v>
+        <v>0.625967602564998</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>369.72220035627</v>
+        <v>369.98053696967</v>
       </c>
       <c r="L35" s="1" t="n">
         <f aca="false">ABS(G35-K35)</f>
-        <v>0.47683810526803</v>
+        <v>0.218501491867983</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4158,18 +4164,18 @@
         <v>360.775961538461</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>120.65930224346</v>
+        <v>120.72766814393</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">ABS(D36-I36)</f>
-        <v>0.501274679616998</v>
+        <v>0.432908779146999</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>360.17190985669</v>
+        <v>360.42242405753</v>
       </c>
       <c r="L36" s="1" t="n">
         <f aca="false">ABS(G36-K36)</f>
-        <v>0.604051681771011</v>
+        <v>0.353537480930981</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,18 +4201,18 @@
         <v>351.352884615385</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>108.71275314725</v>
+        <v>108.7730045767</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">ABS(D37-I37)</f>
-        <v>0.332439160442007</v>
+        <v>0.272187730992002</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>350.86693791154</v>
+        <v>351.10985921814</v>
       </c>
       <c r="L37" s="1" t="n">
         <f aca="false">ABS(G37-K37)</f>
-        <v>0.485946703845002</v>
+        <v>0.243025397244992</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,18 +4238,18 @@
         <v>341.929807692308</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>97.949001094249</v>
+        <v>98.002074656771</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">ABS(D38-I38)</f>
-        <v>0.320229674981803</v>
+        <v>0.267156112459801</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>341.80105337592</v>
+        <v>342.0366047995</v>
       </c>
       <c r="L38" s="1" t="n">
         <f aca="false">ABS(G38-K38)</f>
-        <v>0.128754316387983</v>
+        <v>0.106797107192051</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,18 +4275,18 @@
         <v>333.852884615385</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>88.250947525045</v>
+        <v>88.297673913858</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">ABS(D39-I39)</f>
-        <v>0.59520632110879</v>
+        <v>0.548479932295791</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>332.96817977017</v>
+        <v>333.19657799059</v>
       </c>
       <c r="L39" s="1" t="n">
         <f aca="false">ABS(G39-K39)</f>
-        <v>0.884704845214969</v>
+        <v>0.656306624794979</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,18 +4312,18 @@
         <v>324.429807692308</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>79.513085459459</v>
+        <v>79.554201245705</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">ABS(D40-I40)</f>
-        <v>0.0900085363821006</v>
+        <v>0.131124322628096</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>324.36239162685</v>
+        <v>324.58384716403</v>
       </c>
       <c r="L40" s="1" t="n">
         <f aca="false">ABS(G40-K40)</f>
-        <v>0.0674160654579623</v>
+        <v>0.154039471722001</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,18 +4349,18 @@
         <v>316.352884615385</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>71.640352299379</v>
+        <v>71.676510425215</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">ABS(D41-I41)</f>
-        <v>1.05195539292869</v>
+        <v>1.01579726709269</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>315.97791091434</v>
+        <v>316.19262829535</v>
       </c>
       <c r="L41" s="1" t="n">
         <f aca="false">ABS(G41-K41)</f>
-        <v>0.374973701045008</v>
+        <v>0.160256320034989</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,18 +4386,18 @@
         <v>308.275961538462</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>64.547096120044</v>
+        <v>64.578875236917</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">ABS(D42-I42)</f>
-        <v>0.068288495340596</v>
+        <v>0.0365093784675992</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>307.80910353578</v>
+        <v>308.01728145789</v>
       </c>
       <c r="L42" s="1" t="n">
         <f aca="false">ABS(G42-K42)</f>
-        <v>0.466858002681988</v>
+        <v>0.258680080571992</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,18 +4423,18 @@
         <v>300.199038461538</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>58.156144231668</v>
+        <v>58.184057009536</v>
       </c>
       <c r="J43" s="1" t="n">
         <f aca="false">ABS(D43-I43)</f>
-        <v>1.0746249991012</v>
+        <v>1.0467122212332</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>299.85047590253</v>
+        <v>300.05230739204</v>
       </c>
       <c r="L43" s="1" t="n">
         <f aca="false">ABS(G43-K43)</f>
-        <v>0.34856255900803</v>
+        <v>0.146731069498003</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,18 +4460,18 @@
         <v>293.468269230769</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>52.397963900532</v>
+        <v>52.42246442019</v>
       </c>
       <c r="J44" s="1" t="n">
         <f aca="false">ABS(D44-I44)</f>
-        <v>0.102036099468002</v>
+        <v>0.0775355798099966</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>292.09667158081</v>
+        <v>292.29234414794</v>
       </c>
       <c r="L44" s="1" t="n">
         <f aca="false">ABS(G44-K44)</f>
-        <v>1.37159764995903</v>
+        <v>1.175925082829</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,18 +4497,18 @@
         <v>285.391346153846</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>47.209906116889</v>
+        <v>47.231396445462</v>
       </c>
       <c r="J45" s="1" t="n">
         <f aca="false">ABS(D45-I45)</f>
-        <v>0.0945215015044028</v>
+        <v>0.116011830077404</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>284.54246801052</v>
+        <v>284.73216380039</v>
       </c>
       <c r="L45" s="1" t="n">
         <f aca="false">ABS(G45-K45)</f>
-        <v>0.848878143325976</v>
+        <v>0.659182353455947</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,18 +4534,18 @@
         <v>278.660576923077</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>42.535524196974</v>
+        <v>42.55436023582</v>
       </c>
       <c r="J46" s="1" t="n">
         <f aca="false">ABS(D46-I46)</f>
-        <v>0.541398879949099</v>
+        <v>0.522562841103103</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>277.18277329508</v>
+        <v>277.36666923484</v>
       </c>
       <c r="L46" s="1" t="n">
         <f aca="false">ABS(G46-K46)</f>
-        <v>1.47780362799699</v>
+        <v>1.29390768823697</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,18 +4571,18 @@
         <v>270.583653846154</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>38.323959817668</v>
+        <v>38.340456502289</v>
       </c>
       <c r="J47" s="1" t="n">
         <f aca="false">ABS(D47-I47)</f>
-        <v>0.7145017207935</v>
+        <v>0.698005036172496</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>270.01262306119</v>
+        <v>270.19089100337</v>
       </c>
       <c r="L47" s="1" t="n">
         <f aca="false">ABS(G47-K47)</f>
-        <v>0.571030784963966</v>
+        <v>0.392762842784009</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,18 +4608,18 @@
         <v>263.852884615385</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>34.529389813714</v>
+        <v>34.543825736622</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">ABS(D48-I48)</f>
-        <v>0.470610186286002</v>
+        <v>0.456174263378003</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>263.02717738728</v>
+        <v>263.19998424954</v>
       </c>
       <c r="L48" s="1" t="n">
         <f aca="false">ABS(G48-K48)</f>
-        <v>0.825707228104989</v>
+        <v>0.652900365844971</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,18 +4645,18 @@
         <v>257.122115384615</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>31.110527726505</v>
+        <v>31.123149246335</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">ABS(D49-I49)</f>
-        <v>0.148989264966602</v>
+        <v>0.161610784796601</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>256.22171779968</v>
+        <v>256.38922570088</v>
       </c>
       <c r="L49" s="1" t="n">
         <f aca="false">ABS(G49-K49)</f>
-        <v>0.900397584934979</v>
+        <v>0.732889683734982</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,18 +4682,18 @@
         <v>250.391346153846</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>28.030174687671</v>
+        <v>28.041199580925</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">ABS(D50-I50)</f>
-        <v>0.239056081559699</v>
+        <v>0.2280311883057</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>249.59164433511</v>
+        <v>249.75401072795</v>
       </c>
       <c r="L50" s="1" t="n">
         <f aca="false">ABS(G50-K50)</f>
-        <v>0.799701818735997</v>
+        <v>0.637335425895998</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,18 +4719,18 @@
         <v>243.660576923077</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>25.254814756174</v>
+        <v>25.264435461885</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">ABS(D51-I51)</f>
-        <v>0.322108320749102</v>
+        <v>0.312487615038101</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>243.13247266861</v>
+        <v>243.28985046876</v>
       </c>
       <c r="L51" s="1" t="n">
         <f aca="false">ABS(G51-K51)</f>
-        <v>0.528104254466996</v>
+        <v>0.370726454317008</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,18 +4756,18 @@
         <v>238.275961538462</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>22.754250310284</v>
+        <v>22.762636812387</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">ABS(D52-I52)</f>
-        <v>0.130365074331401</v>
+        <v>0.1219785722284</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>236.83983130555</v>
+        <v>236.99236901752</v>
       </c>
       <c r="L52" s="1" t="n">
         <f aca="false">ABS(G52-K52)</f>
-        <v>1.43613023291201</v>
+        <v>1.28359252094202</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,18 +4793,18 @@
         <v>231.545192307692</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>20.501273530771</v>
+        <v>20.508575918123</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">ABS(D53-I53)</f>
-        <v>1.0371880076905</v>
+        <v>1.0298856203385</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>230.70945883676</v>
+        <v>230.85730067637</v>
       </c>
       <c r="L53" s="1" t="n">
         <f aca="false">ABS(G53-K53)</f>
-        <v>0.835733470931984</v>
+        <v>0.687891631322003</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,18 +4830,18 @@
         <v>226.160576923077</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>18.471370403686</v>
+        <v>18.477721143295</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">ABS(D54-I54)</f>
-        <v>0.374783442467802</v>
+        <v>0.368432702858801</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>224.73720125543</v>
+        <v>224.88048726921</v>
       </c>
       <c r="L54" s="1" t="n">
         <f aca="false">ABS(G54-K54)</f>
-        <v>1.42337566764701</v>
+        <v>1.28008965386701</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,18 +4867,18 @@
         <v>219.429807692308</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>16.642454024384</v>
+        <v>16.647969979534</v>
       </c>
       <c r="J55" s="1" t="n">
         <f aca="false">ABS(D55-I55)</f>
-        <v>0.857545975615999</v>
+        <v>0.852030020466</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>218.91900933488</v>
+        <v>219.05787551623</v>
       </c>
       <c r="L55" s="1" t="n">
         <f aca="false">ABS(G55-K55)</f>
-        <v>0.510798357428001</v>
+        <v>0.371932176077991</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,18 +4904,18 @@
         <v>214.045192307692</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>14.994624302785</v>
+        <v>14.999408524302</v>
       </c>
       <c r="J56" s="1" t="n">
         <f aca="false">ABS(D56-I56)</f>
-        <v>1.1592218510611</v>
+        <v>1.1544376295441</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>213.2509360659</v>
+        <v>213.38551446822</v>
       </c>
       <c r="L56" s="1" t="n">
         <f aca="false">ABS(G56-K56)</f>
-        <v>0.794256241791999</v>
+        <v>0.659677839471982</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,18 +4941,18 @@
         <v>208.660576923077</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>13.50995145683</v>
+        <v>13.514094772603</v>
       </c>
       <c r="J57" s="1" t="n">
         <f aca="false">ABS(D57-I57)</f>
-        <v>0.048412995291601</v>
+        <v>0.0525563110646008</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>207.72913415257</v>
+        <v>207.85955299947</v>
       </c>
       <c r="L57" s="1" t="n">
         <f aca="false">ABS(G57-K57)</f>
-        <v>0.931442770507005</v>
+        <v>0.801023923607005</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,18 +4978,18 @@
         <v>203.275961538462</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>12.172280939559</v>
+        <v>12.175863364717</v>
       </c>
       <c r="J58" s="1" t="n">
         <f aca="false">ABS(D58-I58)</f>
-        <v>0.0568963241743994</v>
+        <v>0.0604787493323986</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>202.34985356554</v>
+        <v>202.47623735802</v>
       </c>
       <c r="L58" s="1" t="n">
         <f aca="false">ABS(G58-K58)</f>
-        <v>0.926107972922011</v>
+        <v>0.799724180442013</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5009,18 +5015,18 @@
         <v>197.891346153846</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>10.967057678271</v>
+        <v>10.970149665946</v>
       </c>
       <c r="J59" s="1" t="n">
         <f aca="false">ABS(D59-I59)</f>
-        <v>1.1483269371136</v>
+        <v>1.1452349494386</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>197.10943915151</v>
+        <v>197.23190877241</v>
       </c>
       <c r="L59" s="1" t="n">
         <f aca="false">ABS(G59-K59)</f>
-        <v>0.781907002335998</v>
+        <v>0.659437381435993</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5046,18 +5052,18 @@
         <v>193.852884615385</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>9.881167714144</v>
+        <v>9.8838312645517</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">ABS(D60-I60)</f>
-        <v>0.8880630550868</v>
+        <v>0.8853995046791</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>192.00432829798</v>
+        <v>192.12300111357</v>
       </c>
       <c r="L60" s="1" t="n">
         <f aca="false">ABS(G60-K60)</f>
-        <v>1.84855631740498</v>
+        <v>1.72988350181498</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,18 +5089,18 @@
         <v>188.468269230769</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>8.902795519845</v>
+        <v>8.9050851634915</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">ABS(D61-I61)</f>
-        <v>0.520281403231909</v>
+        <v>0.51799175958541</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>187.03104865207</v>
+        <v>187.14603861095</v>
       </c>
       <c r="L61" s="1" t="n">
         <f aca="false">ABS(G61-K61)</f>
-        <v>1.437220578699</v>
+        <v>1.32223061981901</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,18 +5126,18 @@
         <v>183.083653846154</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>8.0212954431747</v>
+        <v>8.0232591122285</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">ABS(D62-I62)</f>
-        <v>0.0556276337483688</v>
+        <v>0.0536639646945698</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>182.18621589232</v>
+        <v>182.29763362171</v>
       </c>
       <c r="L62" s="1" t="n">
         <f aca="false">ABS(G62-K62)</f>
-        <v>0.897437953833986</v>
+        <v>0.786020224444002</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,18 +5163,18 @@
         <v>179.045192307692</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>7.2270758783414</v>
+        <v>7.2287556786843</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">ABS(D63-I63)</f>
-        <v>0.84984719858167</v>
+        <v>0.848167398238769</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>177.46653155257</v>
+        <v>177.57448445195</v>
       </c>
       <c r="L63" s="1" t="n">
         <f aca="false">ABS(G63-K63)</f>
-        <v>1.578660755122</v>
+        <v>1.47070785574198</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,18 +5200,18 @@
         <v>173.660576923077</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>6.511494904894</v>
+        <v>6.5129277999747</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">ABS(D64-I64)</f>
-        <v>0.219274325875221</v>
+        <v>0.21784143079452</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>172.86878089664</v>
+        <v>172.97337322894</v>
       </c>
       <c r="L64" s="1" t="n">
         <f aca="false">ABS(G64-K64)</f>
-        <v>0.791796026436998</v>
+        <v>0.687203694136997</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,18 +5237,18 @@
         <v>169.622115384615</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>5.8667662590455</v>
+        <v>5.8679846754314</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">ABS(D65-I65)</f>
-        <v>0.86400297172372</v>
+        <v>0.862784555337821</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>168.38983084295</v>
+        <v>168.49116382324</v>
       </c>
       <c r="L65" s="1" t="n">
         <f aca="false">ABS(G65-K65)</f>
-        <v>1.232284541665</v>
+        <v>1.13095156137501</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,18 +5274,18 @@
         <v>165.583653846154</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>5.285874614489</v>
+        <v>5.2869069779175</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">ABS(D66-I66)</f>
-        <v>0.0987407701263701</v>
+        <v>0.09770840669787</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>164.02662793798</v>
+        <v>164.12479981978</v>
       </c>
       <c r="L66" s="1" t="n">
         <f aca="false">ABS(G66-K66)</f>
-        <v>1.55702590817398</v>
+        <v>1.45885402637398</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5305,18 +5311,18 @@
         <v>161.545192307692</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>4.7624992510631</v>
+        <v>4.763370460819</v>
       </c>
       <c r="J67" s="1" t="n">
         <f aca="false">ABS(D67-I67)</f>
-        <v>0.62211613355227</v>
+        <v>0.62124492379637</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>159.77619637757</v>
+        <v>159.87130253682</v>
       </c>
       <c r="L67" s="1" t="n">
         <f aca="false">ABS(G67-K67)</f>
-        <v>1.768995930122</v>
+        <v>1.67388977087199</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,18 +5348,18 @@
         <v>157.506730769231</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>4.290945280853</v>
+        <v>4.2916771294289</v>
       </c>
       <c r="J68" s="1" t="n">
         <f aca="false">ABS(D68-I68)</f>
-        <v>1.09367010376237</v>
+        <v>1.09293825518647</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>155.635636075</v>
+        <v>155.72776909176</v>
       </c>
       <c r="L68" s="1" t="n">
         <f aca="false">ABS(G68-K68)</f>
-        <v>1.871094694231</v>
+        <v>1.77896167747102</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,18 +5385,18 @@
         <v>153.468269230769</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>3.8660816835182</v>
+        <v>3.8666932277437</v>
       </c>
       <c r="J69" s="1" t="n">
         <f aca="false">ABS(D69-I69)</f>
-        <v>0.17237985494333</v>
+        <v>0.17176831071783</v>
       </c>
       <c r="K69" s="1" t="n">
-        <v>151.60212077502</v>
+        <v>151.69137051293</v>
       </c>
       <c r="L69" s="1" t="n">
         <f aca="false">ABS(G69-K69)</f>
-        <v>1.866148455749</v>
+        <v>1.776898717839</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,18 +5422,18 @@
         <v>149.429807692308</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>3.4832854767058</v>
+        <v>3.4837933658399</v>
       </c>
       <c r="J70" s="1" t="n">
         <f aca="false">ABS(D70-I70)</f>
-        <v>0.55517606175573</v>
+        <v>0.55466817262163</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>147.6728962127</v>
+        <v>147.7593498963</v>
       </c>
       <c r="L70" s="1" t="n">
         <f aca="false">ABS(G70-K70)</f>
-        <v>1.75691147960799</v>
+        <v>1.67045779600801</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,18 +5459,18 @@
         <v>145.391346153846</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>3.1383914141422</v>
+        <v>3.1388101798156</v>
       </c>
       <c r="J71" s="1" t="n">
         <f aca="false">ABS(D71-I71)</f>
-        <v>0.90007012431933</v>
+        <v>0.89965135864593</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>143.84527831619</v>
+        <v>143.9290206061</v>
       </c>
       <c r="L71" s="1" t="n">
         <f aca="false">ABS(G71-K71)</f>
-        <v>1.54606783765601</v>
+        <v>1.46232554774599</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,18 +5496,18 @@
         <v>141.352884615385</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>2.8276466641331</v>
+        <v>2.8279889764751</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">ABS(D72-I72)</f>
-        <v>0.13533897182542</v>
+        <v>0.13568128416742</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>140.11665145247</v>
+        <v>140.19776451855</v>
       </c>
       <c r="L72" s="1" t="n">
         <f aca="false">ABS(G72-K72)</f>
-        <v>1.236233162915</v>
+        <v>1.15512009683499</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,18 +5533,18 @@
         <v>137.314423076923</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>2.5476699753732</v>
+        <v>2.5479468691804</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">ABS(D73-I73)</f>
-        <v>0.14463771693448</v>
+        <v>0.14436082312728</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>136.48446671521</v>
+        <v>136.56303030767</v>
       </c>
       <c r="L73" s="1" t="n">
         <f aca="false">ABS(G73-K73)</f>
-        <v>0.829956361712988</v>
+        <v>0.751392769252988</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5564,18 +5570,18 @@
         <v>134.622115384615</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>2.2954148857919</v>
+        <v>2.2956359601578</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">ABS(D74-I74)</f>
-        <v>0.39689280651578</v>
+        <v>0.39667173214988</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>132.94624025365</v>
+        <v>133.02233177226</v>
       </c>
       <c r="L74" s="1" t="n">
         <f aca="false">ABS(G74-K74)</f>
-        <v>1.67587513096501</v>
+        <v>1.599783612355</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,18 +5607,18 @@
         <v>130.583653846154</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>2.0681365741384</v>
+        <v>2.0683101685832</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">ABS(D75-I75)</f>
-        <v>0.62417111816928</v>
+        <v>0.62399752372448</v>
       </c>
       <c r="K75" s="1" t="n">
-        <v>129.49955164182</v>
+        <v>129.57324620318</v>
       </c>
       <c r="L75" s="1" t="n">
         <f aca="false">ABS(G75-K75)</f>
-        <v>1.08410220433399</v>
+        <v>1.010407642974</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5638,18 +5644,18 @@
         <v>127.891346153846</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>1.8633619936445</v>
+        <v>1.8634953434414</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">ABS(D76-I76)</f>
-        <v>0.82894569866318</v>
+        <v>0.82881234886628</v>
       </c>
       <c r="K76" s="1" t="n">
-        <v>126.14204228707</v>
+        <v>126.21341279001</v>
       </c>
       <c r="L76" s="1" t="n">
         <f aca="false">ABS(G76-K76)</f>
-        <v>1.749303866776</v>
+        <v>1.677933363836</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,18 +5681,18 @@
         <v>123.852884615385</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>1.6788629628082</v>
+        <v>1.6789623358993</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">ABS(D77-I77)</f>
-        <v>1.01344472949948</v>
+        <v>1.01334535640838</v>
       </c>
       <c r="K77" s="1" t="n">
-        <v>122.87141387707</v>
+        <v>122.94053106631</v>
       </c>
       <c r="L77" s="1" t="n">
         <f aca="false">ABS(G77-K77)</f>
-        <v>0.981470738314997</v>
+        <v>0.912353549074993</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,18 +5718,18 @@
         <v>121.160576923077</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>1.5126319205147</v>
+        <v>1.5127027381389</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">ABS(D78-I78)</f>
-        <v>0.16647807436087</v>
+        <v>0.16654889198507</v>
       </c>
       <c r="K78" s="1" t="n">
-        <v>119.68542686446</v>
+        <v>119.75235939244</v>
       </c>
       <c r="L78" s="1" t="n">
         <f aca="false">ABS(G78-K78)</f>
-        <v>1.475150058617</v>
+        <v>1.408217530637</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,18 +5755,18 @@
         <v>118.468269230769</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>1.3628600816975</v>
+        <v>1.3629070246143</v>
       </c>
       <c r="J79" s="1" t="n">
         <f aca="false">ABS(D79-I79)</f>
-        <v>0.01670623554367</v>
+        <v>0.01675317846047</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>116.58189898831</v>
+        <v>116.64671347534</v>
       </c>
       <c r="L79" s="1" t="n">
         <f aca="false">ABS(G79-K79)</f>
-        <v>1.88637024245899</v>
+        <v>1.821555755429</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5786,18 +5792,18 @@
         <v>114.429807692308</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>1.227917755861</v>
+        <v>1.2279448578396</v>
       </c>
       <c r="J80" s="1" t="n">
         <f aca="false">ABS(D80-I80)</f>
-        <v>0.11823609029283</v>
+        <v>0.11820898831423</v>
       </c>
       <c r="K80" s="1" t="n">
-        <v>113.55870383145</v>
+        <v>113.6214649242</v>
       </c>
       <c r="L80" s="1" t="n">
         <f aca="false">ABS(G80-K80)</f>
-        <v>0.871103860858</v>
+        <v>0.808342768108005</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,18 +5829,18 @@
         <v>111.7375</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>1.1063366143181</v>
+        <v>1.1063473443724</v>
       </c>
       <c r="J81" s="1" t="n">
         <f aca="false">ABS(D81-I81)</f>
-        <v>0.23981723183573</v>
+        <v>0.23980650178143</v>
       </c>
       <c r="K81" s="1" t="n">
-        <v>110.61376941311</v>
+        <v>110.67453984145</v>
       </c>
       <c r="L81" s="1" t="n">
         <f aca="false">ABS(G81-K81)</f>
-        <v>1.12373058688999</v>
+        <v>1.06296015855</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,18 +5866,18 @@
         <v>109.045192307692</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>0.99679371319693</v>
+        <v>0.99679104787834</v>
       </c>
       <c r="J82" s="1" t="n">
         <f aca="false">ABS(D82-I82)</f>
-        <v>0.3493601329569</v>
+        <v>0.34936279827549</v>
       </c>
       <c r="K82" s="1" t="n">
-        <v>107.74507681573</v>
+        <v>107.80391744803</v>
       </c>
       <c r="L82" s="1" t="n">
         <f aca="false">ABS(G82-K82)</f>
-        <v>1.300115491962</v>
+        <v>1.241274859662</v>
       </c>
     </row>
   </sheetData>
